--- a/data/08_15_25_tradewheel_scrap.xlsx
+++ b/data/08_15_25_tradewheel_scrap.xlsx
@@ -435,7 +435,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -477,39 +477,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>24 minutes ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RFQ for 130 Degree Rittal Cabinet Concealed Hinge Rittal TS Mild Steel Cabinet Hinge Partial Door Hinge</t>
+          <t>Looking for Almonds</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-130-degree-rittal-cabinet-concealed-hinge/862407/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-almonds/862558/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Good afternoon, I 'd like to budget 500 units of this hinge. (TS028) the product should be free of stains. I have demand of 500 units per month of this product. What is the value of shipping? What is the delivery time? Address: 05114001 - São Paulo-B...</t>
+          <t>Hello, I am looking for Almond Nuts around 1 Tons first to check the quality. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,29 +519,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Want to source Toothpicks</t>
+          <t>RFQ for 130 Degree Rittal Cabinet Concealed Hinge Rittal TS Mild Steel Cabinet Hinge Partial Door Hinge</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-toothpicks/862406/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-130-degree-rittal-cabinet-concealed-hinge/862407/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Looking to import large volumes of machine-polished wooden toothpicks. Could you send details on length, thickness, and moisture content?</t>
+          <t>Good afternoon, I 'd like to budget 500 units of this hinge. (TS028) the product should be free of stains. I have demand of 500 units per month of this product. What is the value of shipping? What is the delivery time? Address: 05114001 - São Paulo-B...</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -551,29 +551,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Looking for Tracksuits</t>
+          <t>Want to source Toothpicks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-tracksuits/862404/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-toothpicks/862406/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Our requirement is for durable, lightweight tracksuits suitable for gym and outdoor wear. Please share your material specs and sizing chart.</t>
+          <t>Looking to import large volumes of machine-polished wooden toothpicks. Could you send details on length, thickness, and moisture content?</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -583,29 +583,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Interested in Wild Camera</t>
+          <t>Looking for Tracksuits</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-wild-camera/862401/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-tracksuits/862404/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Seeking wildlife cameras with night vision and motion detection. What resolution and battery life can you provide? Share available models.</t>
+          <t>Our requirement is for durable, lightweight tracksuits suitable for gym and outdoor wear. Please share your material specs and sizing chart.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -615,29 +615,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Would like to source Paraffin wax</t>
+          <t>Interested in Wild Camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-source-paraffin-wax/862400/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-wild-camera/862401/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>I’m interested in paraffin wax with good melting stability and smooth texture for manufacturing use. Could you share packaging sizes and lead time for bulk orders?</t>
+          <t>Seeking wildlife cameras with night vision and motion detection. What resolution and battery life can you provide? Share available models.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -647,29 +647,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Want to source Photovoltaic inverter housing</t>
+          <t>Would like to source Paraffin wax</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-photovoltaic-inverter-housing/862399/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-source-paraffin-wax/862400/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I’m sourcing housings for photovoltaic inverters, preferably in aluminum for better heat dissipation. Are weather-resistant coatings available? Please share options for bulk orders.</t>
+          <t>I’m interested in paraffin wax with good melting stability and smooth texture for manufacturing use. Could you share packaging sizes and lead time for bulk orders?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -679,29 +679,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Looking to partner with Jersey's</t>
+          <t>Want to source Photovoltaic inverter housing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-to-partner-with-jerseys/862398/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-photovoltaic-inverter-housing/862399/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I am sourcing breathable sports jerseys in multiple colors and sizes for team use. Please share fabric details and customization options.</t>
+          <t>I’m sourcing housings for photovoltaic inverters, preferably in aluminum for better heat dissipation. Are weather-resistant coatings available? Please share options for bulk orders.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -711,29 +711,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Interested in Hand crank stand</t>
+          <t>Looking to partner with Jersey's</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-hand-crank-stand/862397/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-partner-with-jerseys/862398/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Looking for a sturdy hand crank stand, ideally with adjustable height and steel construction. What is the maximum load capacity you can offer?</t>
+          <t>I am sourcing breathable sports jerseys in multiple colors and sizes for team use. Please share fabric details and customization options.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,29 +743,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Would like to buy Hair Dryers</t>
+          <t>Interested in Hand crank stand</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-hair-dryers/862396/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-hand-crank-stand/862397/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Looking for hair dryers that combine strong airflow with energy efficiency. Do you have models that come with diffuser attachments?</t>
+          <t>Looking for a sturdy hand crank stand, ideally with adjustable height and steel construction. What is the maximum load capacity you can offer?</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -775,29 +775,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Interested in Copper and parts</t>
+          <t>Would like to buy Hair Dryers</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-and-parts/862395/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-hair-dryers/862396/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>I’m sourcing copper sheets and related parts with high conductivity. Can you supply both pure and alloyed copper? Please send your specifications.</t>
+          <t>Looking for hair dryers that combine strong airflow with energy efficiency. Do you have models that come with diffuser attachments?</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -807,29 +807,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Need Perfumes for distribution</t>
+          <t>Interested in Copper and parts</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-perfumes-for-distribution/862394/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-and-parts/862395/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I’m currently checking the market for perfumes to add to a seasonal promotion. What fragrance blends do you offer, and can you provide small-batch production for testing before bulk orders?</t>
+          <t>I’m sourcing copper sheets and related parts with high conductivity. Can you supply both pure and alloyed copper? Please send your specifications.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -839,29 +839,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Would like to import Event Stages</t>
+          <t>Need Perfumes for distribution</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-event-stages/862393/</t>
+          <t>https://www.tradewheel.com/buyers/need-perfumes-for-distribution/862394/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>We’re considering aluminum event stages for future concerts and exhibitions. Would like to know if your platforms can be customized with different panel finishes and edge protections.</t>
+          <t>I’m currently checking the market for perfumes to add to a seasonal promotion. What fragrance blends do you offer, and can you provide small-batch production for testing before bulk orders?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -871,29 +871,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Want to source Chemicals</t>
+          <t>Would like to import Event Stages</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-chemicals/862392/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-event-stages/862393/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I’m sourcing polymers made from adipic acid along with industrial-grade polyacrylamide. Can you share details on purity and available packaging? Please confirm your lead time for bulk supply.</t>
+          <t>We’re considering aluminum event stages for future concerts and exhibitions. Would like to know if your platforms can be customized with different panel finishes and edge protections.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -903,29 +903,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Looking for Fresh Olives</t>
+          <t>Want to source Chemicals</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-fresh-olives/862390/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-chemicals/862392/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>I’m sourcing fresh or preserved olives with consistent quality and taste. What varieties and packaging sizes do you offer? Also, share your standard export timeline.</t>
+          <t>I’m sourcing polymers made from adipic acid along with industrial-grade polyacrylamide. Can you share details on purity and available packaging? Please confirm your lead time for bulk supply.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -935,29 +935,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bulk Order for Customized Color Mirror Acrylic Sheet</t>
+          <t>Looking for Fresh Olives</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-customized-color-mirror-acrylic-sheet/862389/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-fresh-olives/862390/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>We are looking for a supplier of Customized Color Mirror Acrylic Sheet to order in bulk. I'm interested in your products. Can you get in touch with me?</t>
+          <t>I’m sourcing fresh or preserved olives with consistent quality and taste. What varieties and packaging sizes do you offer? Also, share your standard export timeline.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -967,29 +967,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Need Stage LED Lights for distribution</t>
+          <t>Bulk Order for Customized Color Mirror Acrylic Sheet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-stage-led-lights-for-distribution/862382/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-order-for-customized-color-mirror-acrylic-sheet/862389/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>We’re sourcing stage LED lights with adjustable brightness and multiple colors. What wattage and beam angles do you offer? Kindly confirm your standard lead time.</t>
+          <t>We are looking for a supplier of Customized Color Mirror Acrylic Sheet to order in bulk. I'm interested in your products. Can you get in touch with me?</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,29 +999,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Searching for suppliers of Cargo Jeans</t>
+          <t>Need Stage LED Lights for distribution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-cargo-jeans/862381/</t>
+          <t>https://www.tradewheel.com/buyers/need-stage-led-lights-for-distribution/862382/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>I require men’s cargo jeans in dark blue denim with multiple pockets. Do you have options in different waist sizes? Please confirm your available stock.</t>
+          <t>We’re sourcing stage LED lights with adjustable brightness and multiple colors. What wattage and beam angles do you offer? Kindly confirm your standard lead time.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1031,29 +1031,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bulk Purchase Inquiry for Faucets</t>
+          <t>Searching for suppliers of Cargo Jeans</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-faucets/862379/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-cargo-jeans/862381/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hello, is there any supplier of faucets with strong corrosion resistance and smooth operation? I’d like to know about design options and shipment lead times.</t>
+          <t>I require men’s cargo jeans in dark blue denim with multiple pockets. Do you have options in different waist sizes? Please confirm your available stock.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1063,29 +1063,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Interested in Floors</t>
+          <t>Bulk Purchase Inquiry for Faucets</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-floors/862376/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-faucets/862379/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hello, are there providers of modular dance floors or stages with quick setup systems? Interested in material quality and load capacity.</t>
+          <t>Hello, is there any supplier of faucets with strong corrosion resistance and smooth operation? I’d like to know about design options and shipment lead times.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Planning to buy wood pellets</t>
+          <t>Interested in Floors</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-wood-pellets/862375/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-floors/862376/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying wood pellets. The pellets must be high quality, low moisture and energy-efficient. Thank you.</t>
+          <t>Hello, are there providers of modular dance floors or stages with quick setup systems? Interested in material quality and load capacity.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1127,605 +1127,605 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Seeking high quality bathtubs</t>
+          <t>Planning to buy wood pellets</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bathtubs/862372/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-wood-pellets/862375/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Good day, We are currently sourcing bathtubs in different styles and sizes. The bathtubs must be made of durable materials like acrylic or cast iron.</t>
+          <t>Good day, We are interested in buying wood pellets. The pellets must be high quality, low moisture and energy-efficient. Thank you.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>In Search Of Motorcycle Tyres</t>
+          <t>Seeking high quality bathtubs</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-motorcycle-tyres/862370/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bathtubs/862372/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing motorcycle tyres in bulk. The tyres must be durable, skid-resistant and suitable for different road conditions. Thank you.</t>
+          <t>Good day, We are currently sourcing bathtubs in different styles and sizes. The bathtubs must be made of durable materials like acrylic or cast iron.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Want to source Basins and Bathroom Mirrors</t>
+          <t>In Search Of Motorcycle Tyres</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-basins-and-bathroom-mirrors/862368/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-motorcycle-tyres/862370/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I’m sourcing ceramic basins in glossy white along with LED bathroom mirrors featuring anti-fog and round design. Could you share the available sizes for both items and let me know the usual delivery time?</t>
+          <t>Good day, We are sourcing motorcycle tyres in bulk. The tyres must be durable, skid-resistant and suitable for different road conditions. Thank you.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bulk purchase inquiry for Garments</t>
+          <t>Want to source Basins and Bathroom Mirrors</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-garments/862367/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-basins-and-bathroom-mirrors/862368/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>We need garments in mixed fabrics with good stitching quality. Could you share available sizes and seasonal designs? Also, what is your shipping time?</t>
+          <t>I’m sourcing ceramic basins in glossy white along with LED bathroom mirrors featuring anti-fog and round design. Could you share the available sizes for both items and let me know the usual delivery time?</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Would like to import CNC Cutting Tools</t>
+          <t>Bulk purchase inquiry for Garments</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-cnc-cutting-tools/862366/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-garments/862367/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Good day seller, I need CNC cutting tools made from carbide material for precision metalwork. Can you share the available sizes and estimated delivery time?</t>
+          <t>We need garments in mixed fabrics with good stitching quality. Could you share available sizes and seasonal designs? Also, what is your shipping time?</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Planning to buy wrapping machines</t>
+          <t>Would like to import CNC Cutting Tools</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-wrapping-machines/862364/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-cnc-cutting-tools/862366/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying wrapping machines. The machines must provide efficient and reliable wrapping for different materials.</t>
+          <t>Good day seller, I need CNC cutting tools made from carbide material for precision metalwork. Can you share the available sizes and estimated delivery time?</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bulk purchase inquiry for Helmets</t>
+          <t>Planning to buy wrapping machines</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-helmets/862363/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-wrapping-machines/862364/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>I require smart helmets for kids with adjustable straps and safety lights. Could you share details on battery life and shipping time?</t>
+          <t>Good day, We are interested in buying wrapping machines. The machines must provide efficient and reliable wrapping for different materials.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Interested in Brass Tube Quick Connectors</t>
+          <t>Bulk purchase inquiry for Helmets</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-brass-tube-quick-connectors/862360/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-helmets/862363/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hi, are there suppliers of brass tube quick connectors for plumbing or mechanical applications? Interested in durable materials and bulk purchase possibilities.</t>
+          <t>I require smart helmets for kids with adjustable straps and safety lights. Could you share details on battery life and shipping time?</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Require Memory Foam Mattresses</t>
+          <t>Interested in Brass Tube Quick Connectors</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-memory-foam-mattresses/862359/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-brass-tube-quick-connectors/862360/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hello, We are looking to source memory foam mattresses. The mattresses must provide comfort, durability and ergonomic support.</t>
+          <t>Hi, are there suppliers of brass tube quick connectors for plumbing or mechanical applications? Interested in durable materials and bulk purchase possibilities.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>In search of electric wheelchairs</t>
+          <t>Require Memory Foam Mattresses</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-electric-wheelchairs/862358/</t>
+          <t>https://www.tradewheel.com/buyers/require-memory-foam-mattresses/862359/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing electric wheelchairs. We require wheelchairs with features such as anti-tip wheels and reliable brakes. Thank you.</t>
+          <t>Hello, We are looking to source memory foam mattresses. The mattresses must provide comfort, durability and ergonomic support.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Importing Aluminum- need quotes</t>
+          <t>In search of electric wheelchairs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminum-need-quotes/862355/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-electric-wheelchairs/862358/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>I need aluminum slugs in round shape with smooth surface finish for manufacturing use. Please confirm available diameters and weight per piece. What is your usual delivery time for bulk orders?</t>
+          <t>Greetings, We are currently sourcing electric wheelchairs. We require wheelchairs with features such as anti-tip wheels and reliable brakes. Thank you.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Require Regular Supply of Auto Headlamps</t>
+          <t>Importing Aluminum- need quotes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-regular-supply-of-auto-headlamps/862354/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminum-need-quotes/862355/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dear Sir, I would like to purchase high quality auto headlamps. The lamps should provide excellent brightness, durability and long service life.</t>
+          <t>I need aluminum slugs in round shape with smooth surface finish for manufacturing use. Please confirm available diameters and weight per piece. What is your usual delivery time for bulk orders?</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Want to source Yarn</t>
+          <t>Require Regular Supply of Auto Headlamps</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-yarn/862353/</t>
+          <t>https://www.tradewheel.com/buyers/require-regular-supply-of-auto-headlamps/862354/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>I need color yarn in bright red and blue shades, suitable for knitting. Please let me know the yarn thickness and your minimum order quantity.</t>
+          <t>Dear Sir, I would like to purchase high quality auto headlamps. The lamps should provide excellent brightness, durability and long service life.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Would like to buy Pumps</t>
+          <t>Want to source Yarn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-pumps/862352/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-yarn/862353/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>I require a float pump suitable for water tanks, preferably in stainless steel body. Can you confirm the power capacity and lead time for supply?</t>
+          <t>I need color yarn in bright red and blue shades, suitable for knitting. Please let me know the yarn thickness and your minimum order quantity.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Want to source Undergarments</t>
+          <t>Would like to buy Pumps</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-undergarments/862351/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-pumps/862352/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>I need women’s undergarments in soft cotton or breathable fabric with various color options. Please provide your available designs and packaging details. How soon can you dispatch after order confirmation?</t>
+          <t>I require a float pump suitable for water tanks, preferably in stainless steel body. Can you confirm the power capacity and lead time for supply?</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Interested in Sportswear</t>
+          <t>Want to source Undergarments</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-sportswear/862350/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-undergarments/862351/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>I am looking for swimwear and sportswear made from quick-dry fabric with good stretch. Kindly share the styles and available size range. What is your standard delivery time for bulk orders?</t>
+          <t>I need women’s undergarments in soft cotton or breathable fabric with various color options. Please provide your available designs and packaging details. How soon can you dispatch after order confirmation?</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Urgently Need Solar Batteries</t>
+          <t>Interested in Sportswear</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-solar-batteries/862348/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-sportswear/862350/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Hello, We are currently seeking solar batteries. The batteries should be durable, long-lasting and capable of deep cycle performance. Kind Regards.</t>
+          <t>I am looking for swimwear and sportswear made from quick-dry fabric with good stretch. Kindly share the styles and available size range. What is your standard delivery time for bulk orders?</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Seeking High Quality Bean Grinders</t>
+          <t>Urgently Need Solar Batteries</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bean-grinders/862347/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-solar-batteries/862348/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase bean grinders. The grinders must deliver consistent performance and high grinding efficiency.</t>
+          <t>Hello, We are currently seeking solar batteries. The batteries should be durable, long-lasting and capable of deep cycle performance. Kind Regards.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>In Search of vacuum flasks</t>
+          <t>Seeking High Quality Bean Grinders</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-vacuum-flasks/862345/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bean-grinders/862347/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing premium vacuum flasks. Kindly provide your product specifications, certifications and best price offers.</t>
+          <t>Hello, We are looking to purchase bean grinders. The grinders must deliver consistent performance and high grinding efficiency.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1735,29 +1735,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>In search of ultrasonic teeth cleaners</t>
+          <t>In Search of vacuum flasks</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-ultrasonic-teeth-cleaners/862341/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-vacuum-flasks/862345/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase ultrasonic teeth cleaners. Please provide us with your product details along with pricing. Thank you.</t>
+          <t>Good day, We are sourcing premium vacuum flasks. Kindly provide your product specifications, certifications and best price offers.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1767,29 +1767,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Searching For Olive Oil</t>
+          <t>In search of ultrasonic teeth cleaners</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-olive-oil/862340/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-ultrasonic-teeth-cleaners/862341/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hi we are looking for Olive Oil we need prices for 10MT please share details with us Thank you</t>
+          <t>Hi there, We are looking to purchase ultrasonic teeth cleaners. Please provide us with your product details along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1799,29 +1799,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Urgent Requirement Of Coating Line</t>
+          <t>Searching For Olive Oil</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-coating-line/862337/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-olive-oil/862340/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing coating line equipment. The equipment must comply with international safety and performance standards.</t>
+          <t>Hi we are looking for Olive Oil we need prices for 10MT please share details with us Thank you</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1831,29 +1831,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Seeking High Quality Rewinders</t>
+          <t>Urgent Requirement Of Coating Line</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-rewinders/862336/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-coating-line/862337/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase rewinder machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>Hello, We are sourcing coating line equipment. The equipment must comply with international safety and performance standards.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1863,29 +1863,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Planning to Buy Slitters</t>
+          <t>Seeking High Quality Rewinders</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-slitters/862333/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-rewinders/862336/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase industrial slitters. The machines should ensure precise cutting with high-speed performance. Kind Regards.</t>
+          <t>Good day, We are looking to purchase rewinder machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1895,29 +1895,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Customizable Round Fisheye Oval Frog Eye Lens Tap Acrylic Beer Tap OEM</t>
+          <t>Planning to Buy Slitters</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/customizable-round-fisheye-oval-frog-eye-lens-tap/862330/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-slitters/862333/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hi, I'm interested in this product. Product name:custom 40-160X Acrylic aspheric surface Lens Pocket Microscope Material:PMMA,acrylic&amp;PC, PMMA&amp;pc Color:Clear</t>
+          <t>Hello, We would like to purchase industrial slitters. The machines should ensure precise cutting with high-speed performance. Kind Regards.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1927,29 +1927,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Requirement For Antimony</t>
+          <t>Customizable Round Fisheye Oval Frog Eye Lens Tap Acrylic Beer Tap OEM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-antimony/862325/</t>
+          <t>https://www.tradewheel.com/buyers/customizable-round-fisheye-oval-frog-eye-lens-tap/862330/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hello We are looking for Antimony We need about 20 tons Please share your good prices Thank you</t>
+          <t>Hi, I'm interested in this product. Product name:custom 40-160X Acrylic aspheric surface Lens Pocket Microscope Material:PMMA,acrylic&amp;PC, PMMA&amp;pc Color:Clear</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1959,29 +1959,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>In Search Of Car Headlights</t>
+          <t>Requirement For Antimony</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-car-headlights/862324/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-antimony/862325/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing car headlights. Please send your product details, certifications along with bulk pricing.</t>
+          <t>Hello We are looking for Antimony We need about 20 tons Please share your good prices Thank you</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1991,29 +1991,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Want To Source HDPE Pipes</t>
+          <t>In Search Of Car Headlights</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-hdpe-pipes/862313/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-car-headlights/862324/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Good day, We are currently sourcing HDPE pipes. The pipes must be corrosion-resistant and suitable for underground installation. Thank you.</t>
+          <t>Hello, We are currently sourcing car headlights. Please send your product details, certifications along with bulk pricing.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2023,29 +2023,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Would Like To Buy Airless Bottles</t>
+          <t>Want To Source HDPE Pipes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-airless-bottles/862311/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-hdpe-pipes/862313/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing airless bottles for cosmetic and skincare packaging. The bottles should be available in different sizes and materials. Thank you.</t>
+          <t>Good day, We are currently sourcing HDPE pipes. The pipes must be corrosion-resistant and suitable for underground installation. Thank you.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2055,29 +2055,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Looking For Oil Casing</t>
+          <t>Would Like To Buy Airless Bottles</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-oil-casing/862310/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-airless-bottles/862311/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hello, We are interested in purchasing oil casing pipes. The product should be available in different sizes and grades for various applications.</t>
+          <t>Good day, We are sourcing airless bottles for cosmetic and skincare packaging. The bottles should be available in different sizes and materials. Thank you.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2087,93 +2087,93 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Want to source stainless steel pipe fittings</t>
+          <t>Looking For Oil Casing</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-stainless-steel-pipe-fittings/862309/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-oil-casing/862310/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase stainless steel pipe fittings. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hello, We are interested in purchasing oil casing pipes. The product should be available in different sizes and grades for various applications.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RFQ for plastic household products</t>
+          <t>Want to source stainless steel pipe fittings</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-plastic-household-products/862281/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-stainless-steel-pipe-fittings/862309/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>We came across your profile and understand that you are manufacturers of plastic household products. We are a trading company based in Manila, Philippines, and are currently looking for a reliable partner who can develop a prototype for our newly des...</t>
+          <t>Hello, We would like to purchase stainless steel pipe fittings. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>19 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RFQ for Low Pressure Forward Curved Centrifugal Blower Fan</t>
+          <t>RFQ for plastic household products</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-low-pressure-forward-curved-centrifugal-blower/862278/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-plastic-household-products/862281/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>We are looking to purchase blowers for our business needs. We require new blowers suitable for various industries including construction, manufacturing plants, farms, printing shops, and restaurants. Product specifications: Condition: New...</t>
+          <t>We came across your profile and understand that you are manufacturers of plastic household products. We are a trading company based in Manila, Philippines, and are currently looking for a reliable partner who can develop a prototype for our newly des...</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2183,93 +2183,93 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Looking for Electrical Panel</t>
+          <t>RFQ for Low Pressure Forward Curved Centrifugal Blower Fan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-electrical-panel/862273/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-low-pressure-forward-curved-centrifugal-blower/862278/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Electrical Panels, I want to know the prices according to your MOQ. Kindly let me know the prices along with the complete details. Thank you.</t>
+          <t>We are looking to purchase blowers for our business needs. We require new blowers suitable for various industries including construction, manufacturing plants, farms, printing shops, and restaurants. Product specifications: Condition: New...</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Looking for Rice</t>
+          <t>Looking for Electrical Panel</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-rice/862259/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-electrical-panel/862273/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Rice around 27 Metric Tons. Kindly let me know the prices along with the details. Thank you.</t>
+          <t>Hello, I am looking for Electrical Panels, I want to know the prices according to your MOQ. Kindly let me know the prices along with the complete details. Thank you.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21 hours ago</t>
+          <t>22 hours ago</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>I want to inquire about oil seal</t>
+          <t>Looking for Rice</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/i-want-to-inquire-about-oil-seal/862256/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-rice/862259/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hello Dear I hope you are doing great, we are looking for oil seal. Kindly share with us the best pricing. quantity 1000 units</t>
+          <t>Hello, I am looking for Rice around 27 Metric Tons. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2279,29 +2279,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Looking for Solar Panel</t>
+          <t>I want to inquire about oil seal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-solar-panel/862251/</t>
+          <t>https://www.tradewheel.com/buyers/i-want-to-inquire-about-oil-seal/862256/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hello i am looking for Need a container 20 ft for Solar Panel. My delivery location is Pakistan. Kindly let me about the prices.</t>
+          <t>Hello Dear I hope you are doing great, we are looking for oil seal. Kindly share with us the best pricing. quantity 1000 units</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2311,29 +2311,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Interested In Copper Cathode</t>
+          <t>Looking for Solar Panel</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-cathode/862248/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-solar-panel/862251/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hi we are looking for Copper Cathode we need 10,000 MT per month × 12 months (with rolls and extension) Please share your product details Thank you</t>
+          <t>Hello i am looking for Need a container 20 ft for Solar Panel. My delivery location is Pakistan. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2343,29 +2343,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Looking for a Supplier of Acrylic Sheets</t>
+          <t>Interested In Copper Cathode</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-a-supplier-of-acrylic-sheets/862246/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-cathode/862248/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>We are looking for 8mm clear acrylic sheet custom cutting about 2000 units. Can you quote me?</t>
+          <t>Hi we are looking for Copper Cathode we need 10,000 MT per month × 12 months (with rolls and extension) Please share your product details Thank you</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2375,29 +2375,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Searching for Palm oil</t>
+          <t>Looking for a Supplier of Acrylic Sheets</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-palm-oil/862236/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-a-supplier-of-acrylic-sheets/862246/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hello i am looking for Palm oil Monthly 10,000 MT. My delivery location is Malaysia. Kindly let me about the prices.</t>
+          <t>We are looking for 8mm clear acrylic sheet custom cutting about 2000 units. Can you quote me?</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2407,189 +2407,189 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Looking for Ginger</t>
+          <t>Searching for Palm oil</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-ginger/862224/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-palm-oil/862236/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hello i am looking for Ginger 1 container 40RF size 100g. My delivery location is POD : Hai Phong Port. Kindly let me about the prices.</t>
+          <t>Hello i am looking for Palm oil Monthly 10,000 MT. My delivery location is Malaysia. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Would Like To Buy Makeup Accessories</t>
+          <t>Looking for Ginger</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-makeup-accessories/862221/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-ginger/862224/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to source a variety of makeup accessories. Kindly share your products list, lead times and customization options.</t>
+          <t>Hello i am looking for Ginger 1 container 40RF size 100g. My delivery location is POD : Hai Phong Port. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Looking For Graphite Products</t>
+          <t>Would Like To Buy Makeup Accessories</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-graphite-products/862220/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-makeup-accessories/862221/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing high-grade graphite products. The products should have high thermal conductivity and durability. Thank you.</t>
+          <t>Hi there, We are looking to source a variety of makeup accessories. Kindly share your products list, lead times and customization options.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Interested In Supermarket Shelves</t>
+          <t>Looking For Graphite Products</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-supermarket-shelves/862218/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-graphite-products/862220/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Greetings, We would like to purchase durable supermarket shelves. The shelves should be strong, adjustable and easy to assemble. Kind Regards.</t>
+          <t>Good day, We are sourcing high-grade graphite products. The products should have high thermal conductivity and durability. Thank you.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Looking For Deodorants</t>
+          <t>Interested In Supermarket Shelves</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-deodorants/862217/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-supermarket-shelves/862218/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase deodorants. Kindly provide us with your MOQ, product details and payment terms.</t>
+          <t>Greetings, We would like to purchase durable supermarket shelves. The shelves should be strong, adjustable and easy to assemble. Kind Regards.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Interested In Electric Screwdrivers</t>
+          <t>Looking For Deodorants</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-electric-screwdrivers/862215/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-deodorants/862217/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Good day, We are looking to procure electric screwdrivers. We are mainly looking for screwdrivers with multiple speed settings &amp; rechargeable batteries.</t>
+          <t>Hello, We are looking to purchase deodorants. Kindly provide us with your MOQ, product details and payment terms.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2599,29 +2599,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Want To Source Face Masks</t>
+          <t>Interested In Electric Screwdrivers</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-face-masks/862214/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-electric-screwdrivers/862215/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality face masks. Kindly send your product specifications, certifications, and lead times.</t>
+          <t>Good day, We are looking to procure electric screwdrivers. We are mainly looking for screwdrivers with multiple speed settings &amp; rechargeable batteries.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2631,29 +2631,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Looking For Shoe Care Kit</t>
+          <t>Want To Source Face Masks</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-shoe-care-kit/862212/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-face-masks/862214/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase premium shoe care kits. The kits should include brushes, polish, cleaning cloths and protective sprays.</t>
+          <t>Hello, We are sourcing high-quality face masks. Kindly send your product specifications, certifications, and lead times.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2663,29 +2663,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Looking For Animal Hides</t>
+          <t>Looking For Shoe Care Kit</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-animal-hides/862209/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-shoe-care-kit/862212/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing raw animal hides. Please provide us with your pricing, available grades and lead times. Kind Regards.</t>
+          <t>Hello, We are looking to purchase premium shoe care kits. The kits should include brushes, polish, cleaning cloths and protective sprays.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2695,29 +2695,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Interested In Facial Steamers</t>
+          <t>Looking For Animal Hides</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-facial-steamers/862208/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-animal-hides/862209/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to purchase facial steamers for salon use. The steamers should be energy-efficient and deliver consistent steam output.</t>
+          <t>Greetings, We are currently sourcing raw animal hides. Please provide us with your pricing, available grades and lead times. Kind Regards.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2727,29 +2727,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Interested In Tool Sets</t>
+          <t>Interested In Facial Steamers</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-tool-sets/862204/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-facial-steamers/862208/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality tool sets. The sets should include tools such as wrenches, screwdrivers, plier &amp; sockets.</t>
+          <t>Greetings, We are looking to purchase facial steamers for salon use. The steamers should be energy-efficient and deliver consistent steam output.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2759,29 +2759,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Looking For Polyester Yarn</t>
+          <t>Interested In Tool Sets</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-polyester-yarn/862203/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-tool-sets/862204/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase high-quality polyester yarn. Please send us your product details, pricing and shipping options.</t>
+          <t>Hello, We are sourcing high-quality tool sets. The sets should include tools such as wrenches, screwdrivers, plier &amp; sockets.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2791,29 +2791,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Want To Source Sunflower Oil</t>
+          <t>Looking For Polyester Yarn</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/862202/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-polyester-yarn/862203/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Good day, We are interested in sourcing refined sunflower oil. The oil must be 100% pure, fresh, and meet international food standards.</t>
+          <t>Hi there, We are looking to purchase high-quality polyester yarn. Please send us your product details, pricing and shipping options.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2823,29 +2823,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Looking For Peanut Butter</t>
+          <t>Want To Source Sunflower Oil</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-peanut-butter/862201/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/862202/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality peanut butter. The products must be made from premium roasted peanuts without harmful additives.</t>
+          <t>Good day, We are interested in sourcing refined sunflower oil. The oil must be 100% pure, fresh, and meet international food standards.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2855,29 +2855,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Looking For Chainlink Fence</t>
+          <t>Looking For Peanut Butter</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-chainlink-fence/862200/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-peanut-butter/862201/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hello, We are currently seeking chainlink fencing. The material must meet high strength and corrosion resistance standards. Thank you.</t>
+          <t>Hello, We are sourcing high-quality peanut butter. The products must be made from premium roasted peanuts without harmful additives.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2887,29 +2887,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Interested In Facial Cleansers</t>
+          <t>Looking For Chainlink Fence</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-facial-cleansers/862199/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-chainlink-fence/862200/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase premium-quality facial cleansers. The products must be dermatologically tested and suitable for all skin types.</t>
+          <t>Hello, We are currently seeking chainlink fencing. The material must meet high strength and corrosion resistance standards. Thank you.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2919,29 +2919,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Looking For Camera Accessories</t>
+          <t>Interested In Facial Cleansers</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-camera-accessories/862198/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-facial-cleansers/862199/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality camera accessories. The range should include tripods, lens filters and cleaning kits. Kind Regards.</t>
+          <t>Good day, We are looking to purchase premium-quality facial cleansers. The products must be dermatologically tested and suitable for all skin types.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Interested In Copper</t>
+          <t>Looking For Camera Accessories</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper/862197/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-camera-accessories/862198/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Hi we are looking for Copper in Canada we would like to know the prices of 1 container full of 40ft Please share your good company profile Thank you</t>
+          <t>Hello, We are sourcing high-quality camera accessories. The range should include tripods, lens filters and cleaning kits. Kind Regards.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2983,29 +2983,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Interested In Vapes</t>
+          <t>Interested In Copper</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-vapes/862194/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper/862197/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Good day, We are currently looking to purchase vapes. Please provide us with competitive pricing and flexible order quantities.</t>
+          <t>Hi we are looking for Copper in Canada we would like to know the prices of 1 container full of 40ft Please share your good company profile Thank you</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3015,29 +3015,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Interested In A4 Copy Paper</t>
+          <t>Interested In Vapes</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-a4-copy-paper/862192/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-vapes/862194/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase premium A4 copy paper. The paper must have a smooth finish, bright whiteness and a standard GSM of 70-80.</t>
+          <t>Good day, We are currently looking to purchase vapes. Please provide us with competitive pricing and flexible order quantities.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3047,29 +3047,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Looking For Energy Drinks</t>
+          <t>Interested In A4 Copy Paper</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-energy-drinks/862188/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-a4-copy-paper/862192/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase energy drinks. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Good day, We are looking to purchase premium A4 copy paper. The paper must have a smooth finish, bright whiteness and a standard GSM of 70-80.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3079,29 +3079,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Looking for e bike</t>
+          <t>Looking For Energy Drinks</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-e-bike/862153/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-energy-drinks/862188/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>My name is Cynthia Okoro, I live in Switzerland but I have e bike shop in Nigeria. Please do you ship to Nigeria</t>
+          <t>Hello, We would like to purchase energy drinks. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3111,29 +3111,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Need Cocoa Bean urgently</t>
+          <t>Looking for e bike</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cocoa-bean-urgently/862124/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-e-bike/862153/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Need premium quality cocoa beans urgently. Looking for dependable suppliers with ready stock.</t>
+          <t>My name is Cynthia Okoro, I live in Switzerland but I have e bike shop in Nigeria. Please do you ship to Nigeria</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3143,29 +3143,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Would like to import Ride On Car</t>
+          <t>Need Cocoa Bean urgently</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-ride-on-car/862125/</t>
+          <t>https://www.tradewheel.com/buyers/need-cocoa-bean-urgently/862124/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>We would like to import children’s ride-on cars. Seeking trusted exporters with competitive offers.</t>
+          <t>Need premium quality cocoa beans urgently. Looking for dependable suppliers with ready stock.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3175,29 +3175,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Would like to buy Wood Working Machine Spares and Tools</t>
+          <t>Would like to import Ride On Car</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-wood-working-machine-spares/862127/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-ride-on-car/862125/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Would like to buy woodworking machine spares and tools in bulk. Reliable quality and timely delivery needed.</t>
+          <t>We would like to import children’s ride-on cars. Seeking trusted exporters with competitive offers.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3207,29 +3207,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Interested in Copper Scrap</t>
+          <t>Would like to buy Wood Working Machine Spares and Tools</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-scrap/862128/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-wood-working-machine-spares/862127/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>We are interested in buying copper scrap for immediate shipment. Only verified suppliers are welcome.</t>
+          <t>Would like to buy woodworking machine spares and tools in bulk. Reliable quality and timely delivery needed.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3239,29 +3239,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Looking for Vape</t>
+          <t>Interested in Copper Scrap</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-vape/862129/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-scrap/862128/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Currently sourcing branded vape products. Interested suppliers are requested to provide quotations.</t>
+          <t>We are interested in buying copper scrap for immediate shipment. Only verified suppliers are welcome.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3271,29 +3271,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Rush order for Essential Oil – Contact ASAP</t>
+          <t>Looking for Vape</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rush-order-for-essential-oil-contact-asap/862131/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-vape/862129/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Rush order required for natural essential oils. Genuine suppliers contact us immediately.</t>
+          <t>Currently sourcing branded vape products. Interested suppliers are requested to provide quotations.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3303,29 +3303,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ready to place order for Red Lentils</t>
+          <t>Rush order for Essential Oil – Contact ASAP</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-red-lentils/862134/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-essential-oil-contact-asap/862131/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>We are ready to place an order for premium red lentils. Suppliers with stock on hand please connect.</t>
+          <t>Rush order required for natural essential oils. Genuine suppliers contact us immediately.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3335,29 +3335,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Immediate purchase – A4 Paper</t>
+          <t>Ready to place order for Red Lentils</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-a4-paper/862135/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-red-lentils/862134/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Immediate purchase required for A4 paper in bulk. Looking for competitive rates and fast delivery.</t>
+          <t>We are ready to place an order for premium red lentils. Suppliers with stock on hand please connect.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3367,29 +3367,29 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Urgent requirement of Sugar</t>
+          <t>Immediate purchase – A4 Paper</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-sugar/862136/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-a4-paper/862135/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>We have an urgent requirement for high-quality sugar. Reliable suppliers kindly share offers at the earliest.</t>
+          <t>Immediate purchase required for A4 paper in bulk. Looking for competitive rates and fast delivery.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3399,29 +3399,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Details For  Antimony Ore</t>
+          <t>Urgent requirement of Sugar</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/details-for-antimony-ore/862138/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-sugar/862136/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>We are looking for suppliers for Antimony Ore</t>
+          <t>We have an urgent requirement for high-quality sugar. Reliable suppliers kindly share offers at the earliest.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3431,29 +3431,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Need Bulk suppliers for copper</t>
+          <t>Details For  Antimony Ore</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-bulk-suppliers-for-copper/862139/</t>
+          <t>https://www.tradewheel.com/buyers/details-for-antimony-ore/862138/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>We are here looking to make an order for copper.</t>
+          <t>We are looking for suppliers for Antimony Ore</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3463,29 +3463,29 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Intending To Make an order For Sunflower Oil</t>
+          <t>Need Bulk suppliers for copper</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/intending-to-make-an-order-for-sunflower-oil/862141/</t>
+          <t>https://www.tradewheel.com/buyers/need-bulk-suppliers-for-copper/862139/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>We are looking to make an order for Sunflower Oil</t>
+          <t>We are here looking to make an order for copper.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Quotation For Used Cloths</t>
+          <t>Intending To Make an order For Sunflower Oil</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-used-cloths/862143/</t>
+          <t>https://www.tradewheel.com/buyers/intending-to-make-an-order-for-sunflower-oil/862141/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>We need suppliers for Used Cloths Need verified suppliers only</t>
+          <t>We are looking to make an order for Sunflower Oil</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3527,29 +3527,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Procuring Crude Oil with private labelling</t>
+          <t>Quotation For Used Cloths</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-crude-oil-with-private-labelling/862146/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-used-cloths/862143/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Hi there, I am seeking to buy Crude Oil. Let me know the prices and details.</t>
+          <t>We need suppliers for Used Cloths Need verified suppliers only</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3559,29 +3559,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Eager to buy Toothpaste</t>
+          <t>Procuring Crude Oil with private labelling</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/eager-to-buy-toothpaste/862148/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-crude-oil-with-private-labelling/862146/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hey friend, I have requirement for buying Toothpaste. Send the catalogue and price list.</t>
+          <t>Hi there, I am seeking to buy Crude Oil. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3591,29 +3591,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Honing machines needed for industrial use</t>
+          <t>Eager to buy Toothpaste</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/honing-machines-needed-for-industrial-use/862150/</t>
+          <t>https://www.tradewheel.com/buyers/eager-to-buy-toothpaste/862148/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hello, I am importing Honing machines. Need quotes and details.</t>
+          <t>Hey friend, I have requirement for buying Toothpaste. Send the catalogue and price list.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Would like to buy Sanitary Napkins</t>
+          <t>Honing machines needed for industrial use</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-sanitary-napkins/862151/</t>
+          <t>https://www.tradewheel.com/buyers/honing-machines-needed-for-industrial-use/862150/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hey friend, I am intending to purchase Sanitary Napkins. Share the prices and other details.</t>
+          <t>Hello, I am importing Honing machines. Need quotes and details.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3655,29 +3655,29 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Require coffee for OEM</t>
+          <t>Would like to buy Sanitary Napkins</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-coffee-for-oem/862152/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-sanitary-napkins/862151/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Hello, We are very interested in sourcing high-quality Thai coffee for private label or wholesale supply, and we’re currently exploring potential supplier partnerships. Ideally, we are looking for: Roasted or green beans suitable for retail ...</t>
+          <t>Hey friend, I am intending to purchase Sanitary Napkins. Share the prices and other details.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3687,29 +3687,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Planning to Buy Disposable Vapes</t>
+          <t>Require coffee for OEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-disposable-vapes/862154/</t>
+          <t>https://www.tradewheel.com/buyers/require-coffee-for-oem/862152/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>keen to purchase Vozol China Wholesale Factory Vape we need price and details Thank you!</t>
+          <t>Hello, We are very interested in sourcing high-quality Thai coffee for private label or wholesale supply, and we’re currently exploring potential supplier partnerships. Ideally, we are looking for: Roasted or green beans suitable for retail ...</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3719,22 +3719,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Urgently Need Horse meat</t>
+          <t>Planning to Buy Disposable Vapes</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-horse-meat/862155/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-disposable-vapes/862154/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>I am Cody. I want to purchase some horsemeat for my family! if you have kindly share price and details Thank you!</t>
+          <t>keen to purchase Vozol China Wholesale Factory Vape we need price and details Thank you!</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -3751,29 +3751,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Want to Procuring mung bean &amp; red bean</t>
+          <t>Urgently Need Horse meat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-procuring-mung-bean-red-bean/862156/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-horse-meat/862155/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Willing to procure mung bean &amp; red bean from U.S. origin. The minimum volume will be at least a container load, equivalent to 25 metric tons. Looking for quality and a competitive price, if possible.</t>
+          <t>I am Cody. I want to purchase some horsemeat for my family! if you have kindly share price and details Thank you!</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3783,29 +3783,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Looking for Importing Aluminum alloys</t>
+          <t>Want to Procuring mung bean &amp; red bean</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-importing-aluminum-alloys/862157/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-procuring-mung-bean-red-bean/862156/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>in your quotation: 1. Types of Aluminum Alloys (including Pure Aluminum): A list of all available aluminum alloy types, in addition to pure aluminum, specifying the technical characteristics of each type (e.g., chemical composition, mechanical pr...</t>
+          <t>Willing to procure mung bean &amp; red bean from U.S. origin. The minimum volume will be at least a container load, equivalent to 25 metric tons. Looking for quality and a competitive price, if possible.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3815,29 +3815,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Require High Quality Canned Pineapples</t>
+          <t>Looking for Importing Aluminum alloys</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-high-quality-canned-pineapples/862163/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-importing-aluminum-alloys/862157/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hi!!, I’m Daniel and I’m interested in buying pineapples from you and would like to ask you some questions, hope we’ll contact us soon please share your price and details Thank you!</t>
+          <t>in your quotation: 1. Types of Aluminum Alloys (including Pure Aluminum): A list of all available aluminum alloy types, in addition to pure aluminum, specifying the technical characteristics of each type (e.g., chemical composition, mechanical pr...</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3847,29 +3847,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Need to purchase Vape and electronics cigarettes</t>
+          <t>Require High Quality Canned Pineapples</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-purchase-vape-and-electronics-cigarettes/862164/</t>
+          <t>https://www.tradewheel.com/buyers/require-high-quality-canned-pineapples/862163/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hello Need to purchase JNR Wolf Niplo 10000 Puffs Wholesale Vape 0% 2% 5% Levels For Puffs JNR Enthusiasts In The JNR Vape Pakistan Market kindly let me know the price and details Thank you!</t>
+          <t>Hi!!, I’m Daniel and I’m interested in buying pineapples from you and would like to ask you some questions, hope we’ll contact us soon please share your price and details Thank you!</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3879,29 +3879,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RFQ for  Korean fillers</t>
+          <t>Need to purchase Vape and electronics cigarettes</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-korean-fillers/862106/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-purchase-vape-and-electronics-cigarettes/862164/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>i am from a distribution company of Viva pharmaceutical, we are just finishing relationships with our partners and looking for new ones. We are located in Georgia Tbilisi and right now we are interested in Korean fillers. I am interested in low price...</t>
+          <t>Hello Need to purchase JNR Wolf Niplo 10000 Puffs Wholesale Vape 0% 2% 5% Levels For Puffs JNR Enthusiasts In The JNR Vape Pakistan Market kindly let me know the price and details Thank you!</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3911,29 +3911,29 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Looking for Moringa Powder</t>
+          <t>RFQ for  Korean fillers</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-moringa-powder/862088/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-korean-fillers/862106/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Hello, I need MORINGA POWDER, MOQ is 50kg</t>
+          <t>i am from a distribution company of Viva pharmaceutical, we are just finishing relationships with our partners and looking for new ones. We are located in Georgia Tbilisi and right now we are interested in Korean fillers. I am interested in low price...</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3943,29 +3943,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>RFQ for magnesium oxide light,pharma grade,99%</t>
+          <t>Looking for Moringa Powder</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-magnesium-oxide-lightpharma-grade99/862081/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-moringa-powder/862088/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Dear sir,, Kindly send your best quote for : Magnesium Oxide Light (ip)" Quantity : 500 Kg Purity : 99% Packing : 25 Kg / bag CIF Alexandria port , Egypt Also can you send the COA .</t>
+          <t>Hello, I need MORINGA POWDER, MOQ is 50kg</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3975,29 +3975,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Looking for Peanuts</t>
+          <t>RFQ for magnesium oxide light,pharma grade,99%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-peanuts/862076/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-magnesium-oxide-lightpharma-grade99/862081/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Hello, I need Peanut, MOQ is 10ton</t>
+          <t>Dear sir,, Kindly send your best quote for : Magnesium Oxide Light (ip)" Quantity : 500 Kg Purity : 99% Packing : 25 Kg / bag CIF Alexandria port , Egypt Also can you send the COA .</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4007,29 +4007,29 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Looking for Vape</t>
+          <t>Looking for Peanuts</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-vape/862074/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-peanuts/862076/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Hello, I need Vape, Send Samples</t>
+          <t>Hello, I need Peanut, MOQ is 10ton</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4039,22 +4039,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>RFQ for corrugated catalyst</t>
+          <t>Looking for Vape</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-corrugated-catalyst/862073/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-vape/862074/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CATALYST FROM PRODUCERS ONLY Supply in Casablanca of vanadium catalyst type XLP220 or 04-110 or standard catalyst SHAPE AND DIMENSIONS 1) Type: 04-110 or equivalent Installation: 1st, 2ND, 3rd, and 4th beds Inner diameter: 3.8 mm Outer diameter...</t>
+          <t>Hello, I need Vape, Send Samples</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -4071,29 +4071,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RFQ for Designer Fashion Gold Plated Jewelry</t>
+          <t>RFQ for corrugated catalyst</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-designer-fashion-gold-plated-jewelry/862071/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-corrugated-catalyst/862073/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hello, I am interested in your hypoallergenic stainless steel jewelry (necklaces, bracelets, rings, earrings). Before any order, I must make sure that your products comply with European regulations. Please send me the following documents for the p...</t>
+          <t>CATALYST FROM PRODUCERS ONLY Supply in Casablanca of vanadium catalyst type XLP220 or 04-110 or standard catalyst SHAPE AND DIMENSIONS 1) Type: 04-110 or equivalent Installation: 1st, 2ND, 3rd, and 4th beds Inner diameter: 3.8 mm Outer diameter...</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4103,29 +4103,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Interested In Water Bottles</t>
+          <t>RFQ for Designer Fashion Gold Plated Jewelry</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-water-bottles/862051/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-designer-fashion-gold-plated-jewelry/862071/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Hi there, I would like to purchase water bottles. The bottles should be leak-proof, durable and available in various sizes.</t>
+          <t>Hello, I am interested in your hypoallergenic stainless steel jewelry (necklaces, bracelets, rings, earrings). Before any order, I must make sure that your products comply with European regulations. Please send me the following documents for the p...</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4135,29 +4135,29 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Interested In Milk Powder</t>
+          <t>Interested In Water Bottles</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-milk-powder/862049/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-water-bottles/862051/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase milk powder. Please provide us with product details, shelf life, and minimum order quantities.</t>
+          <t>Hi there, I would like to purchase water bottles. The bottles should be leak-proof, durable and available in various sizes.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4167,29 +4167,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Requirement For Used Drained Battery Scrap</t>
+          <t>Interested In Milk Powder</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-used-drained-battery-scrap/862046/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-milk-powder/862049/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Hi we are looking for Battery Scrap in India Our requirement is 1000MT please share your good prices with us Thank you</t>
+          <t>Good day, We are looking to purchase milk powder. Please provide us with product details, shelf life, and minimum order quantities.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4199,29 +4199,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Searching For Vanilla Beans</t>
+          <t>Requirement For Used Drained Battery Scrap</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-vanilla-beans/862045/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-used-drained-battery-scrap/862046/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Greetings, We would like to purchase vanilla beans. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hi we are looking for Battery Scrap in India Our requirement is 1000MT please share your good prices with us Thank you</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4231,29 +4231,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Interested in Winter Strollers</t>
+          <t>Searching For Vanilla Beans</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-winter-strollers/862044/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-vanilla-beans/862045/</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I need winter shawls in stroller style, preferably in soft wool or blended fabric for bulk purchase. Please share available colors and designs suitable for winter wear. What is your usual delivery time for large orders?</t>
+          <t>Greetings, We would like to purchase vanilla beans. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4263,29 +4263,29 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Looking For Sour Mustard Greens</t>
+          <t>Interested in Winter Strollers</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-sour-mustard-greens/862043/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-winter-strollers/862044/</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Good day, We are looking to buy sour mustard greens. Please provide us with your product details along with pricing. Thank you.</t>
+          <t>I need winter shawls in stroller style, preferably in soft wool or blended fabric for bulk purchase. Please share available colors and designs suitable for winter wear. What is your usual delivery time for large orders?</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4295,29 +4295,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Want To Source Agricultural Products</t>
+          <t>Looking For Sour Mustard Greens</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-agricultural-products/862040/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-sour-mustard-greens/862043/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing a wide range of agricultural products. The products must meet international food quality standards &amp; be free from chemical contamination.</t>
+          <t>Good day, We are looking to buy sour mustard greens. Please provide us with your product details along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4327,29 +4327,29 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Looking For Biomass Briquette Machines</t>
+          <t>Want To Source Agricultural Products</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-biomass-briquette-machines/862038/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-agricultural-products/862040/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hello, We are in need of biomass briquette machines. The machines should have a high output capacity and low power consumption.</t>
+          <t>Hello, We are sourcing a wide range of agricultural products. The products must meet international food quality standards &amp; be free from chemical contamination.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4359,29 +4359,29 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Interested In Sunflower Seeds</t>
+          <t>Looking For Biomass Briquette Machines</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-sunflower-seeds/862036/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-biomass-briquette-machines/862038/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hello, We are in need of raw sunflower seeds. Interested suppliers should provide quality certifications and competitive pricing.</t>
+          <t>Hello, We are in need of biomass briquette machines. The machines should have a high output capacity and low power consumption.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4391,29 +4391,29 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Looking for Cocopeat</t>
+          <t>Interested In Sunflower Seeds</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-cocopeat/862035/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-sunflower-seeds/862036/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Cocopeat around 2 Containers of 40ft first. Kindly let me know the prices along with the details. Thank you.</t>
+          <t>Hello, We are in need of raw sunflower seeds. Interested suppliers should provide quality certifications and competitive pricing.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4423,29 +4423,29 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Looking For Instant Rice</t>
+          <t>Looking for Cocopeat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-instant-rice/862034/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-cocopeat/862035/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase instant rice. The rice should be quick-cooking and must retain its natural flavor and texture. Kind Regards.</t>
+          <t>Hello, I am looking for Cocopeat around 2 Containers of 40ft first. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4455,29 +4455,29 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Searching For Solar Fruit Dehydrator</t>
+          <t>Looking For Instant Rice</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-solar-fruit-dehydrator/862033/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-instant-rice/862034/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hello We are looking for Solar Fruit Dehydrator We would like to know the details of your products we will buy 1 to check the quality of it Please share your good prices Thank you</t>
+          <t>Good day, We are looking to purchase instant rice. The rice should be quick-cooking and must retain its natural flavor and texture. Kind Regards.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4487,29 +4487,29 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Want to source Industrial Refrigerators</t>
+          <t>Searching For Solar Fruit Dehydrator</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-industrial-refrigerators/862031/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-solar-fruit-dehydrator/862033/</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I am looking for an industrial refrigerator with stainless steel body and large storage capacity. Can you share temperature range and cooling system details? How soon can you arrange delivery after order confirmation?</t>
+          <t>Hello We are looking for Solar Fruit Dehydrator We would like to know the details of your products we will buy 1 to check the quality of it Please share your good prices Thank you</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4519,29 +4519,29 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Interested in Household appliances</t>
+          <t>Want to source Industrial Refrigerators</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-household-appliances/862029/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-industrial-refrigerators/862031/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I am sourcing household appliances for bulk purchase, preferably in energy-efficient models. Please confirm if you can offer warranty and spare parts availability. What is your standard lead time for shipment?</t>
+          <t>I am looking for an industrial refrigerator with stainless steel body and large storage capacity. Can you share temperature range and cooling system details? How soon can you arrange delivery after order confirmation?</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4551,29 +4551,29 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Interested in Aluminum</t>
+          <t>Interested in Household appliances</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-aluminum/862028/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-household-appliances/862029/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I require aluminum and other metal materials in sheet form, preferably with corrosion-resistant finish. Could you provide details on thickness options and surface treatment? Also, what are your usual packing methods for export?</t>
+          <t>I am sourcing household appliances for bulk purchase, preferably in energy-efficient models. Please confirm if you can offer warranty and spare parts availability. What is your standard lead time for shipment?</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4583,29 +4583,29 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Interested in Solar inverter</t>
+          <t>Interested in Aluminum</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-solar-inverter/862025/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-aluminum/862028/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hi, are there producers of solar inverters with reliable performance for residential and commercial systems? I’d like to know about capacities, warranties, and bulk availability.</t>
+          <t>I require aluminum and other metal materials in sheet form, preferably with corrosion-resistant finish. Could you provide details on thickness options and surface treatment? Also, what are your usual packing methods for export?</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4615,29 +4615,29 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Interested In Epoxy Resin</t>
+          <t>Interested in Solar inverter</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-epoxy-resin/862024/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-solar-inverter/862025/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Dear Sir, I am looking to purchase epoxy resin. The product should have strong bonding capabilities and excellent durability. Thank you.</t>
+          <t>Hi, are there producers of solar inverters with reliable performance for residential and commercial systems? I’d like to know about capacities, warranties, and bulk availability.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4647,29 +4647,29 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>In need of Handbags from manufacturer</t>
+          <t>Interested In Epoxy Resin</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-need-of-handbags-from-manufacturer/862023/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-epoxy-resin/862024/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hi, are there manufacturers offering handbags in various materials and designs for wholesale supply? Interested in stylish yet durable options for different market segments.</t>
+          <t>Dear Sir, I am looking to purchase epoxy resin. The product should have strong bonding capabilities and excellent durability. Thank you.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4679,29 +4679,29 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Interested In Black Tea</t>
+          <t>In need of Handbags from manufacturer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-black-tea/862022/</t>
+          <t>https://www.tradewheel.com/buyers/in-need-of-handbags-from-manufacturer/862023/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Good day, We are seeking premium black tea. The tea must be fresh, aromatic and sourced from reputable plantations. Kind Regards.</t>
+          <t>Hi, are there manufacturers offering handbags in various materials and designs for wholesale supply? Interested in stylish yet durable options for different market segments.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4711,29 +4711,29 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Buying LED Lights for resale</t>
+          <t>Interested In Black Tea</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-led-lights-for-resale/862021/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-black-tea/862022/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>I’m collecting LED indoor lighting options for future installation projects, focusing on lumen output, style, and delivery time.</t>
+          <t>Good day, We are seeking premium black tea. The tea must be fresh, aromatic and sourced from reputable plantations. Kind Regards.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4743,29 +4743,29 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Interested in LED Mirror</t>
+          <t>Buying LED Lights for resale</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-led-mirror/862019/</t>
+          <t>https://www.tradewheel.com/buyers/buying-led-lights-for-resale/862021/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>I am looking for custom LED mirrors with adjustable light settings. Could you provide details on available shapes and delivery lead time?</t>
+          <t>I’m collecting LED indoor lighting options for future installation projects, focusing on lumen output, style, and delivery time.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4775,29 +4775,29 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Searching for suppliers of Marbles</t>
+          <t>Interested in LED Mirror</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-marbles/862018/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-led-mirror/862019/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I want to connect with suppliers offering marble in various finishes, from honed to glossy, with prompt delivery schedules.</t>
+          <t>I am looking for custom LED mirrors with adjustable light settings. Could you provide details on available shapes and delivery lead time?</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4807,29 +4807,29 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Buying Cotton for resale</t>
+          <t>Searching for suppliers of Marbles</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-cotton-for-resale/862016/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-marbles/862018/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>I require dental cotton wool rolls in pure white, medical-grade quality. Can you confirm the available roll lengths and packaging options?</t>
+          <t>I want to connect with suppliers offering marble in various finishes, from honed to glossy, with prompt delivery schedules.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4839,29 +4839,29 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ready to buy Pet Products</t>
+          <t>Buying Cotton for resale</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-buy-pet-products/862013/</t>
+          <t>https://www.tradewheel.com/buyers/buying-cotton-for-resale/862016/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>I need smart auto feeders and similar pet gadgets for cats and dogs. Please let me know your available capacities and power options.</t>
+          <t>I require dental cotton wool rolls in pure white, medical-grade quality. Can you confirm the available roll lengths and packaging options?</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4871,29 +4871,29 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Want to source Solar Freezers</t>
+          <t>Ready to buy Pet Products</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-solar-freezers/862011/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-buy-pet-products/862013/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>I need solar-powered freezers suitable for outdoor or off-grid use. Please share available storage capacities and how long they can maintain cooling without sunlight.</t>
+          <t>I need smart auto feeders and similar pet gadgets for cats and dogs. Please let me know your available capacities and power options.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4903,29 +4903,29 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Looking for cat toys</t>
+          <t>Want to source Solar Freezers</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-cat-toys/862009/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-solar-freezers/862011/</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase cat toys. The materials must be safe, non-toxic, and durable for extended use. Kind Regards.</t>
+          <t>I need solar-powered freezers suitable for outdoor or off-grid use. Please share available storage capacities and how long they can maintain cooling without sunlight.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4935,29 +4935,29 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RFQ for 2-start ball screw</t>
+          <t>Looking for cat toys</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-2-start-ball-screw/862007/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-cat-toys/862009/</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>I hope this message finds you well. Attached, you'll find a PDF with the general dimensions we need for the screw and nut. We're considering a 2-start ball screw, 4.76mm in diameter with a 5 mm lead, along with the corresponding nut.</t>
+          <t>Hello, We are looking to purchase cat toys. The materials must be safe, non-toxic, and durable for extended use. Kind Regards.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4967,29 +4967,29 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RFQ for CRGO steel sheet</t>
+          <t>RFQ for 2-start ball screw</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-crgo-steel-sheet/862001/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-2-start-ball-screw/862007/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>We need CRGO steel sheet and coil roll for transformer. Attached the details Technology: Electroslag Shape: Roll Surface: POLISH Special Use: Wear Resistant Steel Surface treatment: Black Leather Delivery condition: Pre-harden (28-36HRC ) Tech...</t>
+          <t>I hope this message finds you well. Attached, you'll find a PDF with the general dimensions we need for the screw and nut. We're considering a 2-start ball screw, 4.76mm in diameter with a 5 mm lead, along with the corresponding nut.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4999,29 +4999,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RFQ for electric saws for woodworking</t>
+          <t>RFQ for CRGO steel sheet</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-electric-saws-for-woodworking/861996/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-crgo-steel-sheet/862001/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>We are looking to purchase electric saws for woodworking purposes. The saws must be in new condition and directly sourced from manufacturers. Product specifications: Application: Woodworking Condition: New Supplier type: Manufacturer Typ...</t>
+          <t>We need CRGO steel sheet and coil roll for transformer. Attached the details Technology: Electroslag Shape: Roll Surface: POLISH Special Use: Wear Resistant Steel Surface treatment: Black Leather Delivery condition: Pre-harden (28-36HRC ) Tech...</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5031,29 +5031,29 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Looking For Excavator Spare Parts</t>
+          <t>RFQ for electric saws for woodworking</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-excavator-spare-parts/861994/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-electric-saws-for-woodworking/861996/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hello, We are looking to source genuine heavy duty hitachi excavator spare parts. Our needs include hydraulic pumps, undercarriage parts, engine components.</t>
+          <t>We are looking to purchase electric saws for woodworking purposes. The saws must be in new condition and directly sourced from manufacturers. Product specifications: Application: Woodworking Condition: New Supplier type: Manufacturer Typ...</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5063,29 +5063,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Looking For Selective Wave Soldering Machines</t>
+          <t>Looking For Excavator Spare Parts</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-selective-wave-soldering-machines/861993/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-excavator-spare-parts/861994/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase selective wave soldering machines. The machines should support high-precision soldering for complex boards with minimal thermal stress.</t>
+          <t>Hello, We are looking to source genuine heavy duty hitachi excavator spare parts. Our needs include hydraulic pumps, undercarriage parts, engine components.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5095,29 +5095,29 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Looking for hot melt glue machines</t>
+          <t>Looking For Selective Wave Soldering Machines</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-hot-melt-glue-machines/861983/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-selective-wave-soldering-machines/861993/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing hot melt glue machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>Good day, We are looking to purchase selective wave soldering machines. The machines should support high-precision soldering for complex boards with minimal thermal stress.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5127,29 +5127,29 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Searching For Sunscreen</t>
+          <t>Looking for hot melt glue machines</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-sunscreen/861982/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-hot-melt-glue-machines/861983/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Hi we are looking for sunscreen in Malaysia our requirement is 500 to 1000 pcs at the moment we are also interested in make up items Thank you</t>
+          <t>Hello, We are sourcing hot melt glue machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5159,29 +5159,29 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Interested in car cameras</t>
+          <t>Searching For Sunscreen</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-car-cameras/861980/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-sunscreen/861982/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase high-definition car cameras. Can you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hi we are looking for sunscreen in Malaysia our requirement is 500 to 1000 pcs at the moment we are also interested in make up items Thank you</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5191,29 +5191,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Looking for bathroom accessories</t>
+          <t>Interested in car cameras</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-bathroom-accessories/861976/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-car-cameras/861980/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Good day, We are seeking bathroom accessory sets. The products must include towel bars, soap dishes and robe hooks. Kind Regards.</t>
+          <t>Good day, We are looking to purchase high-definition car cameras. Can you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5223,29 +5223,29 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Looking For Silicone Infant Food Containers</t>
+          <t>Looking for bathroom accessories</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-silicone-infant-food-containers/861975/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-bathroom-accessories/861976/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Good day, We are looking for BPA-free silicone infant food containers. Please provide us with sample availability, certifications and prices.</t>
+          <t>Good day, We are seeking bathroom accessory sets. The products must include towel bars, soap dishes and robe hooks. Kind Regards.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5255,29 +5255,29 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Searching for ball screws</t>
+          <t>Looking For Silicone Infant Food Containers</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-ball-screws/861974/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-silicone-infant-food-containers/861975/</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Hi there, We are sourcing high-precision ball screws. Please provide us with product details along with pricing. Kind Regards.</t>
+          <t>Good day, We are looking for BPA-free silicone infant food containers. Please provide us with sample availability, certifications and prices.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5287,29 +5287,29 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Interested in electric saws</t>
+          <t>Searching for ball screws</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-electric-saws/861972/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-ball-screws/861974/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Hello, We are looking for high-performance electric saws. Interested suppliers should share product certifications and price lists.</t>
+          <t>Hi there, We are sourcing high-precision ball screws. Please provide us with product details along with pricing. Kind Regards.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5319,29 +5319,29 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Would like to buy strapping machines</t>
+          <t>Interested in electric saws</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-strapping-machines/861969/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-electric-saws/861972/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Dear Sir, I would like to purchase strapping machines. Kindly provide me with detailed specifications along with pricing. Thank you.</t>
+          <t>Hello, We are looking for high-performance electric saws. Interested suppliers should share product certifications and price lists.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Want To Source Steel Scrap</t>
+          <t>Would like to buy strapping machines</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-steel-scrap/861968/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-strapping-machines/861969/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Good day, We are interested in purchasing large quantities of steel scrap. Interested sellers may send their best price offers and certifications.</t>
+          <t>Dear Sir, I would like to purchase strapping machines. Kindly provide me with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5383,29 +5383,29 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Interested In PCB Assembly SMT</t>
+          <t>Want To Source Steel Scrap</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-pcb-assembly-smt/861966/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-steel-scrap/861968/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>We are seeking reliable suppliers for high-quality PCB Assembly SMT. Our requirements include precision surface mount technology with strict adherence to IPC standards.</t>
+          <t>Good day, We are interested in purchasing large quantities of steel scrap. Interested sellers may send their best price offers and certifications.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5415,29 +5415,29 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Want to source hydraulic breakers</t>
+          <t>Interested In PCB Assembly SMT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-hydraulic-breakers/861965/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-pcb-assembly-smt/861966/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing heavy-duty hydraulic breakers. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>We are seeking reliable suppliers for high-quality PCB Assembly SMT. Our requirements include precision surface mount technology with strict adherence to IPC standards.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5447,29 +5447,29 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Searching for claw machines</t>
+          <t>Want to source hydraulic breakers</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-claw-machines/861964/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-hydraulic-breakers/861965/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase claw machines. The machines should have adjustable grip strength and coin acceptors.</t>
+          <t>Hello, We are currently sourcing heavy-duty hydraulic breakers. Please provide us with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5479,29 +5479,29 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Want to source electric grills</t>
+          <t>Searching for claw machines</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-electric-grills/861963/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-claw-machines/861964/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing electric grills. The products should be energy-efficient, easy to clean and safe to use. Thank you.</t>
+          <t>Hello, We would like to purchase claw machines. The machines should have adjustable grip strength and coin acceptors.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5511,22 +5511,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Would like to buy judo mats</t>
+          <t>Want to source electric grills</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-judo-mats/861961/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-electric-grills/861963/</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase judo mats. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hello, We are currently sourcing electric grills. The products should be energy-efficient, easy to clean and safe to use. Thank you.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-08-15 11:50:05</t>
+          <t>2025-08-15 12:18:02</t>
         </is>
       </c>
     </row>

--- a/data/08_15_25_tradewheel_scrap.xlsx
+++ b/data/08_15_25_tradewheel_scrap.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24 minutes ago</t>
+          <t>31 minutes ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4534,7 +4534,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-08-15 12:18:02</t>
+          <t>2025-08-15 12:25:01</t>
         </is>
       </c>
     </row>

--- a/data/08_15_25_tradewheel_scrap.xlsx
+++ b/data/08_15_25_tradewheel_scrap.xlsx
@@ -477,352 +477,352 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31 minutes ago</t>
+          <t>59 minutes ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Looking for Almonds</t>
+          <t>RFQ for  galvanized zinc-coated square steel tubes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-almonds/862558/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-galvanized-zinc-coated-square-steel-tubes/862577/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Almond Nuts around 1 Tons first to check the quality. Kindly let me know the prices along with the details. Thank you.</t>
+          <t>We require 2000 pieces of welded hot-rolled, hot-dip galvanized zinc-coated square steel tubes in sizes 160×160 mm and 180×80 mm for construction structures. Kindly share your best quotation and available standards.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RFQ for 130 Degree Rittal Cabinet Concealed Hinge Rittal TS Mild Steel Cabinet Hinge Partial Door Hinge</t>
+          <t>RFQ for ball screws</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-130-degree-rittal-cabinet-concealed-hinge/862407/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-ball-screws/862576/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Good afternoon, I 'd like to budget 500 units of this hinge. (TS028) the product should be free of stains. I have demand of 500 units per month of this product. What is the value of shipping? What is the delivery time? Address: 05114001 - São Paulo-B...</t>
+          <t>Hi, I am looking for a ball screw in either 1605 or 1610 size, C5 accuracy, 900 mm length, supplied with 4 ball nuts. Please provide your best quotation and shipping terms.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>1 hour ago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Want to source Toothpicks</t>
+          <t>RFQ for Beachwear suits</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-toothpicks/862406/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-beachwear-suits/862575/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Looking to import large volumes of machine-polished wooden toothpicks. Could you send details on length, thickness, and moisture content?</t>
+          <t>Hi, I am looking for 2000 pieces of Beachwear suits in a rainbow color texture. Material composition should be 82% Nylon and 18% Polyester. Kindly provide your best quotation and available packaging options.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>2 hours ago</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Looking for Tracksuits</t>
+          <t>Looking for Almonds</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-tracksuits/862404/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-almonds/862558/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Our requirement is for durable, lightweight tracksuits suitable for gym and outdoor wear. Please share your material specs and sizing chart.</t>
+          <t>Hello, I am looking for Almond Nuts around 1 Tons first to check the quality. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Interested in Wild Camera</t>
+          <t>RFQ for 130 Degree Rittal Cabinet Concealed Hinge Rittal TS Mild Steel Cabinet Hinge Partial Door Hinge</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-wild-camera/862401/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-130-degree-rittal-cabinet-concealed-hinge/862407/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Seeking wildlife cameras with night vision and motion detection. What resolution and battery life can you provide? Share available models.</t>
+          <t>Good afternoon, I 'd like to budget 500 units of this hinge. (TS028) the product should be free of stains. I have demand of 500 units per month of this product. What is the value of shipping? What is the delivery time? Address: 05114001 - São Paulo-B...</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Would like to source Paraffin wax</t>
+          <t>Want to source Toothpicks</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-source-paraffin-wax/862400/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-toothpicks/862406/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I’m interested in paraffin wax with good melting stability and smooth texture for manufacturing use. Could you share packaging sizes and lead time for bulk orders?</t>
+          <t>Looking to import large volumes of machine-polished wooden toothpicks. Could you send details on length, thickness, and moisture content?</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Want to source Photovoltaic inverter housing</t>
+          <t>Looking for Tracksuits</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-photovoltaic-inverter-housing/862399/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-tracksuits/862404/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I’m sourcing housings for photovoltaic inverters, preferably in aluminum for better heat dissipation. Are weather-resistant coatings available? Please share options for bulk orders.</t>
+          <t>Our requirement is for durable, lightweight tracksuits suitable for gym and outdoor wear. Please share your material specs and sizing chart.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Looking to partner with Jersey's</t>
+          <t>Interested in Wild Camera</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-to-partner-with-jerseys/862398/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-wild-camera/862401/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I am sourcing breathable sports jerseys in multiple colors and sizes for team use. Please share fabric details and customization options.</t>
+          <t>Seeking wildlife cameras with night vision and motion detection. What resolution and battery life can you provide? Share available models.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Interested in Hand crank stand</t>
+          <t>Would like to source Paraffin wax</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-hand-crank-stand/862397/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-source-paraffin-wax/862400/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Looking for a sturdy hand crank stand, ideally with adjustable height and steel construction. What is the maximum load capacity you can offer?</t>
+          <t>I’m interested in paraffin wax with good melting stability and smooth texture for manufacturing use. Could you share packaging sizes and lead time for bulk orders?</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Would like to buy Hair Dryers</t>
+          <t>Want to source Photovoltaic inverter housing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-hair-dryers/862396/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-photovoltaic-inverter-housing/862399/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Looking for hair dryers that combine strong airflow with energy efficiency. Do you have models that come with diffuser attachments?</t>
+          <t>I’m sourcing housings for photovoltaic inverters, preferably in aluminum for better heat dissipation. Are weather-resistant coatings available? Please share options for bulk orders.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Interested in Copper and parts</t>
+          <t>Looking to partner with Jersey's</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-and-parts/862395/</t>
+          <t>https://www.tradewheel.com/buyers/looking-to-partner-with-jerseys/862398/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I’m sourcing copper sheets and related parts with high conductivity. Can you supply both pure and alloyed copper? Please send your specifications.</t>
+          <t>I am sourcing breathable sports jerseys in multiple colors and sizes for team use. Please share fabric details and customization options.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -834,155 +834,155 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Need Perfumes for distribution</t>
+          <t>Interested in Hand crank stand</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-perfumes-for-distribution/862394/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-hand-crank-stand/862397/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I’m currently checking the market for perfumes to add to a seasonal promotion. What fragrance blends do you offer, and can you provide small-batch production for testing before bulk orders?</t>
+          <t>Looking for a sturdy hand crank stand, ideally with adjustable height and steel construction. What is the maximum load capacity you can offer?</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Would like to import Event Stages</t>
+          <t>Would like to buy Hair Dryers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-event-stages/862393/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-hair-dryers/862396/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>We’re considering aluminum event stages for future concerts and exhibitions. Would like to know if your platforms can be customized with different panel finishes and edge protections.</t>
+          <t>Looking for hair dryers that combine strong airflow with energy efficiency. Do you have models that come with diffuser attachments?</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Want to source Chemicals</t>
+          <t>Interested in Copper and parts</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-chemicals/862392/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-and-parts/862395/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>I’m sourcing polymers made from adipic acid along with industrial-grade polyacrylamide. Can you share details on purity and available packaging? Please confirm your lead time for bulk supply.</t>
+          <t>I’m sourcing copper sheets and related parts with high conductivity. Can you supply both pure and alloyed copper? Please send your specifications.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Looking for Fresh Olives</t>
+          <t>Need Perfumes for distribution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-fresh-olives/862390/</t>
+          <t>https://www.tradewheel.com/buyers/need-perfumes-for-distribution/862394/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>I’m sourcing fresh or preserved olives with consistent quality and taste. What varieties and packaging sizes do you offer? Also, share your standard export timeline.</t>
+          <t>I’m currently checking the market for perfumes to add to a seasonal promotion. What fragrance blends do you offer, and can you provide small-batch production for testing before bulk orders?</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bulk Order for Customized Color Mirror Acrylic Sheet</t>
+          <t>Would like to import Event Stages</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-order-for-customized-color-mirror-acrylic-sheet/862389/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-event-stages/862393/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>We are looking for a supplier of Customized Color Mirror Acrylic Sheet to order in bulk. I'm interested in your products. Can you get in touch with me?</t>
+          <t>We’re considering aluminum event stages for future concerts and exhibitions. Would like to know if your platforms can be customized with different panel finishes and edge protections.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -994,1154 +994,1154 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Need Stage LED Lights for distribution</t>
+          <t>Want to source Chemicals</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-stage-led-lights-for-distribution/862382/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-chemicals/862392/</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>We’re sourcing stage LED lights with adjustable brightness and multiple colors. What wattage and beam angles do you offer? Kindly confirm your standard lead time.</t>
+          <t>I’m sourcing polymers made from adipic acid along with industrial-grade polyacrylamide. Can you share details on purity and available packaging? Please confirm your lead time for bulk supply.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Searching for suppliers of Cargo Jeans</t>
+          <t>Looking for Fresh Olives</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-cargo-jeans/862381/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-fresh-olives/862390/</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>I require men’s cargo jeans in dark blue denim with multiple pockets. Do you have options in different waist sizes? Please confirm your available stock.</t>
+          <t>I’m sourcing fresh or preserved olives with consistent quality and taste. What varieties and packaging sizes do you offer? Also, share your standard export timeline.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bulk Purchase Inquiry for Faucets</t>
+          <t>Bulk Order for Customized Color Mirror Acrylic Sheet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-faucets/862379/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-order-for-customized-color-mirror-acrylic-sheet/862389/</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hello, is there any supplier of faucets with strong corrosion resistance and smooth operation? I’d like to know about design options and shipment lead times.</t>
+          <t>We are looking for a supplier of Customized Color Mirror Acrylic Sheet to order in bulk. I'm interested in your products. Can you get in touch with me?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Interested in Floors</t>
+          <t>Need Stage LED Lights for distribution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-floors/862376/</t>
+          <t>https://www.tradewheel.com/buyers/need-stage-led-lights-for-distribution/862382/</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hello, are there providers of modular dance floors or stages with quick setup systems? Interested in material quality and load capacity.</t>
+          <t>We’re sourcing stage LED lights with adjustable brightness and multiple colors. What wattage and beam angles do you offer? Kindly confirm your standard lead time.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Planning to buy wood pellets</t>
+          <t>Searching for suppliers of Cargo Jeans</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-wood-pellets/862375/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-cargo-jeans/862381/</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying wood pellets. The pellets must be high quality, low moisture and energy-efficient. Thank you.</t>
+          <t>I require men’s cargo jeans in dark blue denim with multiple pockets. Do you have options in different waist sizes? Please confirm your available stock.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Seeking high quality bathtubs</t>
+          <t>Bulk Purchase Inquiry for Faucets</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bathtubs/862372/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-faucets/862379/</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Good day, We are currently sourcing bathtubs in different styles and sizes. The bathtubs must be made of durable materials like acrylic or cast iron.</t>
+          <t>Hello, is there any supplier of faucets with strong corrosion resistance and smooth operation? I’d like to know about design options and shipment lead times.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>In Search Of Motorcycle Tyres</t>
+          <t>Interested in Floors</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-motorcycle-tyres/862370/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-floors/862376/</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing motorcycle tyres in bulk. The tyres must be durable, skid-resistant and suitable for different road conditions. Thank you.</t>
+          <t>Hello, are there providers of modular dance floors or stages with quick setup systems? Interested in material quality and load capacity.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Want to source Basins and Bathroom Mirrors</t>
+          <t>Planning to buy wood pellets</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-basins-and-bathroom-mirrors/862368/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-wood-pellets/862375/</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>I’m sourcing ceramic basins in glossy white along with LED bathroom mirrors featuring anti-fog and round design. Could you share the available sizes for both items and let me know the usual delivery time?</t>
+          <t>Good day, We are interested in buying wood pellets. The pellets must be high quality, low moisture and energy-efficient. Thank you.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bulk purchase inquiry for Garments</t>
+          <t>Seeking high quality bathtubs</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-garments/862367/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bathtubs/862372/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>We need garments in mixed fabrics with good stitching quality. Could you share available sizes and seasonal designs? Also, what is your shipping time?</t>
+          <t>Good day, We are currently sourcing bathtubs in different styles and sizes. The bathtubs must be made of durable materials like acrylic or cast iron.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Would like to import CNC Cutting Tools</t>
+          <t>In Search Of Motorcycle Tyres</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-cnc-cutting-tools/862366/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-motorcycle-tyres/862370/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Good day seller, I need CNC cutting tools made from carbide material for precision metalwork. Can you share the available sizes and estimated delivery time?</t>
+          <t>Good day, We are sourcing motorcycle tyres in bulk. The tyres must be durable, skid-resistant and suitable for different road conditions. Thank you.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Planning to buy wrapping machines</t>
+          <t>Want to source Basins and Bathroom Mirrors</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-wrapping-machines/862364/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-basins-and-bathroom-mirrors/862368/</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Good day, We are interested in buying wrapping machines. The machines must provide efficient and reliable wrapping for different materials.</t>
+          <t>I’m sourcing ceramic basins in glossy white along with LED bathroom mirrors featuring anti-fog and round design. Could you share the available sizes for both items and let me know the usual delivery time?</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bulk purchase inquiry for Helmets</t>
+          <t>Bulk purchase inquiry for Garments</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-helmets/862363/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-garments/862367/</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>I require smart helmets for kids with adjustable straps and safety lights. Could you share details on battery life and shipping time?</t>
+          <t>We need garments in mixed fabrics with good stitching quality. Could you share available sizes and seasonal designs? Also, what is your shipping time?</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Interested in Brass Tube Quick Connectors</t>
+          <t>Would like to import CNC Cutting Tools</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-brass-tube-quick-connectors/862360/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-cnc-cutting-tools/862366/</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hi, are there suppliers of brass tube quick connectors for plumbing or mechanical applications? Interested in durable materials and bulk purchase possibilities.</t>
+          <t>Good day seller, I need CNC cutting tools made from carbide material for precision metalwork. Can you share the available sizes and estimated delivery time?</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Require Memory Foam Mattresses</t>
+          <t>Planning to buy wrapping machines</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-memory-foam-mattresses/862359/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-wrapping-machines/862364/</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hello, We are looking to source memory foam mattresses. The mattresses must provide comfort, durability and ergonomic support.</t>
+          <t>Good day, We are interested in buying wrapping machines. The machines must provide efficient and reliable wrapping for different materials.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>In search of electric wheelchairs</t>
+          <t>Bulk purchase inquiry for Helmets</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-electric-wheelchairs/862358/</t>
+          <t>https://www.tradewheel.com/buyers/bulk-purchase-inquiry-for-helmets/862363/</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing electric wheelchairs. We require wheelchairs with features such as anti-tip wheels and reliable brakes. Thank you.</t>
+          <t>I require smart helmets for kids with adjustable straps and safety lights. Could you share details on battery life and shipping time?</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Importing Aluminum- need quotes</t>
+          <t>Interested in Brass Tube Quick Connectors</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/importing-aluminum-need-quotes/862355/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-brass-tube-quick-connectors/862360/</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>I need aluminum slugs in round shape with smooth surface finish for manufacturing use. Please confirm available diameters and weight per piece. What is your usual delivery time for bulk orders?</t>
+          <t>Hi, are there suppliers of brass tube quick connectors for plumbing or mechanical applications? Interested in durable materials and bulk purchase possibilities.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Require Regular Supply of Auto Headlamps</t>
+          <t>Require Memory Foam Mattresses</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-regular-supply-of-auto-headlamps/862354/</t>
+          <t>https://www.tradewheel.com/buyers/require-memory-foam-mattresses/862359/</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dear Sir, I would like to purchase high quality auto headlamps. The lamps should provide excellent brightness, durability and long service life.</t>
+          <t>Hello, We are looking to source memory foam mattresses. The mattresses must provide comfort, durability and ergonomic support.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>18 hours ago</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Want to source Yarn</t>
+          <t>In search of electric wheelchairs</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-yarn/862353/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-electric-wheelchairs/862358/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>I need color yarn in bright red and blue shades, suitable for knitting. Please let me know the yarn thickness and your minimum order quantity.</t>
+          <t>Greetings, We are currently sourcing electric wheelchairs. We require wheelchairs with features such as anti-tip wheels and reliable brakes. Thank you.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Would like to buy Pumps</t>
+          <t>Importing Aluminum- need quotes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-pumps/862352/</t>
+          <t>https://www.tradewheel.com/buyers/importing-aluminum-need-quotes/862355/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>I require a float pump suitable for water tanks, preferably in stainless steel body. Can you confirm the power capacity and lead time for supply?</t>
+          <t>I need aluminum slugs in round shape with smooth surface finish for manufacturing use. Please confirm available diameters and weight per piece. What is your usual delivery time for bulk orders?</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Want to source Undergarments</t>
+          <t>Require Regular Supply of Auto Headlamps</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-undergarments/862351/</t>
+          <t>https://www.tradewheel.com/buyers/require-regular-supply-of-auto-headlamps/862354/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>I need women’s undergarments in soft cotton or breathable fabric with various color options. Please provide your available designs and packaging details. How soon can you dispatch after order confirmation?</t>
+          <t>Dear Sir, I would like to purchase high quality auto headlamps. The lamps should provide excellent brightness, durability and long service life.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Interested in Sportswear</t>
+          <t>Want to source Yarn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-sportswear/862350/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-yarn/862353/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>I am looking for swimwear and sportswear made from quick-dry fabric with good stretch. Kindly share the styles and available size range. What is your standard delivery time for bulk orders?</t>
+          <t>I need color yarn in bright red and blue shades, suitable for knitting. Please let me know the yarn thickness and your minimum order quantity.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Urgently Need Solar Batteries</t>
+          <t>Would like to buy Pumps</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-solar-batteries/862348/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-pumps/862352/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Hello, We are currently seeking solar batteries. The batteries should be durable, long-lasting and capable of deep cycle performance. Kind Regards.</t>
+          <t>I require a float pump suitable for water tanks, preferably in stainless steel body. Can you confirm the power capacity and lead time for supply?</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Seeking High Quality Bean Grinders</t>
+          <t>Want to source Undergarments</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bean-grinders/862347/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-undergarments/862351/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase bean grinders. The grinders must deliver consistent performance and high grinding efficiency.</t>
+          <t>I need women’s undergarments in soft cotton or breathable fabric with various color options. Please provide your available designs and packaging details. How soon can you dispatch after order confirmation?</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>In Search of vacuum flasks</t>
+          <t>Interested in Sportswear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-vacuum-flasks/862345/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-sportswear/862350/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing premium vacuum flasks. Kindly provide your product specifications, certifications and best price offers.</t>
+          <t>I am looking for swimwear and sportswear made from quick-dry fabric with good stretch. Kindly share the styles and available size range. What is your standard delivery time for bulk orders?</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>In search of ultrasonic teeth cleaners</t>
+          <t>Urgently Need Solar Batteries</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-ultrasonic-teeth-cleaners/862341/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-solar-batteries/862348/</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase ultrasonic teeth cleaners. Please provide us with your product details along with pricing. Thank you.</t>
+          <t>Hello, We are currently seeking solar batteries. The batteries should be durable, long-lasting and capable of deep cycle performance. Kind Regards.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Searching For Olive Oil</t>
+          <t>Seeking High Quality Bean Grinders</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-olive-oil/862340/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-bean-grinders/862347/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hi we are looking for Olive Oil we need prices for 10MT please share details with us Thank you</t>
+          <t>Hello, We are looking to purchase bean grinders. The grinders must deliver consistent performance and high grinding efficiency.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Urgent Requirement Of Coating Line</t>
+          <t>In Search of vacuum flasks</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-coating-line/862337/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-vacuum-flasks/862345/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing coating line equipment. The equipment must comply with international safety and performance standards.</t>
+          <t>Good day, We are sourcing premium vacuum flasks. Kindly provide your product specifications, certifications and best price offers.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Seeking High Quality Rewinders</t>
+          <t>In search of ultrasonic teeth cleaners</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/seeking-high-quality-rewinders/862336/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-ultrasonic-teeth-cleaners/862341/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase rewinder machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>Hi there, We are looking to purchase ultrasonic teeth cleaners. Please provide us with your product details along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Planning to Buy Slitters</t>
+          <t>Searching For Olive Oil</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-slitters/862333/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-olive-oil/862340/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase industrial slitters. The machines should ensure precise cutting with high-speed performance. Kind Regards.</t>
+          <t>Hi we are looking for Olive Oil we need prices for 10MT please share details with us Thank you</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Customizable Round Fisheye Oval Frog Eye Lens Tap Acrylic Beer Tap OEM</t>
+          <t>Urgent Requirement Of Coating Line</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/customizable-round-fisheye-oval-frog-eye-lens-tap/862330/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-coating-line/862337/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hi, I'm interested in this product. Product name:custom 40-160X Acrylic aspheric surface Lens Pocket Microscope Material:PMMA,acrylic&amp;PC, PMMA&amp;pc Color:Clear</t>
+          <t>Hello, We are sourcing coating line equipment. The equipment must comply with international safety and performance standards.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Requirement For Antimony</t>
+          <t>Seeking High Quality Rewinders</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-antimony/862325/</t>
+          <t>https://www.tradewheel.com/buyers/seeking-high-quality-rewinders/862336/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hello We are looking for Antimony We need about 20 tons Please share your good prices Thank you</t>
+          <t>Good day, We are looking to purchase rewinder machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>In Search Of Car Headlights</t>
+          <t>Planning to Buy Slitters</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-search-of-car-headlights/862324/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-slitters/862333/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing car headlights. Please send your product details, certifications along with bulk pricing.</t>
+          <t>Hello, We would like to purchase industrial slitters. The machines should ensure precise cutting with high-speed performance. Kind Regards.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Want To Source HDPE Pipes</t>
+          <t>Customizable Round Fisheye Oval Frog Eye Lens Tap Acrylic Beer Tap OEM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-hdpe-pipes/862313/</t>
+          <t>https://www.tradewheel.com/buyers/customizable-round-fisheye-oval-frog-eye-lens-tap/862330/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Good day, We are currently sourcing HDPE pipes. The pipes must be corrosion-resistant and suitable for underground installation. Thank you.</t>
+          <t>Hi, I'm interested in this product. Product name:custom 40-160X Acrylic aspheric surface Lens Pocket Microscope Material:PMMA,acrylic&amp;PC, PMMA&amp;pc Color:Clear</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Would Like To Buy Airless Bottles</t>
+          <t>Requirement For Antimony</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-airless-bottles/862311/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-antimony/862325/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing airless bottles for cosmetic and skincare packaging. The bottles should be available in different sizes and materials. Thank you.</t>
+          <t>Hello We are looking for Antimony We need about 20 tons Please share your good prices Thank you</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Looking For Oil Casing</t>
+          <t>In Search Of Car Headlights</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-oil-casing/862310/</t>
+          <t>https://www.tradewheel.com/buyers/in-search-of-car-headlights/862324/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hello, We are interested in purchasing oil casing pipes. The product should be available in different sizes and grades for various applications.</t>
+          <t>Hello, We are currently sourcing car headlights. Please send your product details, certifications along with bulk pricing.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18 hours ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Want to source stainless steel pipe fittings</t>
+          <t>Want To Source HDPE Pipes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-stainless-steel-pipe-fittings/862309/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-hdpe-pipes/862313/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase stainless steel pipe fittings. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Good day, We are currently sourcing HDPE pipes. The pipes must be corrosion-resistant and suitable for underground installation. Thank you.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2151,29 +2151,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RFQ for plastic household products</t>
+          <t>Would Like To Buy Airless Bottles</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-plastic-household-products/862281/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-airless-bottles/862311/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>We came across your profile and understand that you are manufacturers of plastic household products. We are a trading company based in Manila, Philippines, and are currently looking for a reliable partner who can develop a prototype for our newly des...</t>
+          <t>Good day, We are sourcing airless bottles for cosmetic and skincare packaging. The bottles should be available in different sizes and materials. Thank you.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2183,29 +2183,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RFQ for Low Pressure Forward Curved Centrifugal Blower Fan</t>
+          <t>Looking For Oil Casing</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-low-pressure-forward-curved-centrifugal-blower/862278/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-oil-casing/862310/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>We are looking to purchase blowers for our business needs. We require new blowers suitable for various industries including construction, manufacturing plants, farms, printing shops, and restaurants. Product specifications: Condition: New...</t>
+          <t>Hello, We are interested in purchasing oil casing pipes. The product should be available in different sizes and grades for various applications.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2215,29 +2215,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Looking for Electrical Panel</t>
+          <t>Want to source stainless steel pipe fittings</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-electrical-panel/862273/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-stainless-steel-pipe-fittings/862309/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Electrical Panels, I want to know the prices according to your MOQ. Kindly let me know the prices along with the complete details. Thank you.</t>
+          <t>Hello, We would like to purchase stainless steel pipe fittings. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2247,29 +2247,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Looking for Rice</t>
+          <t>RFQ for plastic household products</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-rice/862259/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-plastic-household-products/862281/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Rice around 27 Metric Tons. Kindly let me know the prices along with the details. Thank you.</t>
+          <t>We came across your profile and understand that you are manufacturers of plastic household products. We are a trading company based in Manila, Philippines, and are currently looking for a reliable partner who can develop a prototype for our newly des...</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2279,29 +2279,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>I want to inquire about oil seal</t>
+          <t>RFQ for Low Pressure Forward Curved Centrifugal Blower Fan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/i-want-to-inquire-about-oil-seal/862256/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-low-pressure-forward-curved-centrifugal-blower/862278/</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hello Dear I hope you are doing great, we are looking for oil seal. Kindly share with us the best pricing. quantity 1000 units</t>
+          <t>We are looking to purchase blowers for our business needs. We require new blowers suitable for various industries including construction, manufacturing plants, farms, printing shops, and restaurants. Product specifications: Condition: New...</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2311,125 +2311,125 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Looking for Solar Panel</t>
+          <t>Looking for Electrical Panel</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-solar-panel/862251/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-electrical-panel/862273/</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hello i am looking for Need a container 20 ft for Solar Panel. My delivery location is Pakistan. Kindly let me about the prices.</t>
+          <t>Hello, I am looking for Electrical Panels, I want to know the prices according to your MOQ. Kindly let me know the prices along with the complete details. Thank you.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Interested In Copper Cathode</t>
+          <t>Looking for Rice</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-cathode/862248/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-rice/862259/</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Hi we are looking for Copper Cathode we need 10,000 MT per month × 12 months (with rolls and extension) Please share your product details Thank you</t>
+          <t>Hello, I am looking for Rice around 27 Metric Tons. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Looking for a Supplier of Acrylic Sheets</t>
+          <t>I want to inquire about oil seal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-a-supplier-of-acrylic-sheets/862246/</t>
+          <t>https://www.tradewheel.com/buyers/i-want-to-inquire-about-oil-seal/862256/</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>We are looking for 8mm clear acrylic sheet custom cutting about 2000 units. Can you quote me?</t>
+          <t>Hello Dear I hope you are doing great, we are looking for oil seal. Kindly share with us the best pricing. quantity 1000 units</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>23 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Searching for Palm oil</t>
+          <t>Looking for Solar Panel</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-palm-oil/862236/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-solar-panel/862251/</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Hello i am looking for Palm oil Monthly 10,000 MT. My delivery location is Malaysia. Kindly let me about the prices.</t>
+          <t>Hello i am looking for Need a container 20 ft for Solar Panel. My delivery location is Pakistan. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2439,29 +2439,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Looking for Ginger</t>
+          <t>Interested In Copper Cathode</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-ginger/862224/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-cathode/862248/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hello i am looking for Ginger 1 container 40RF size 100g. My delivery location is POD : Hai Phong Port. Kindly let me about the prices.</t>
+          <t>Hi we are looking for Copper Cathode we need 10,000 MT per month × 12 months (with rolls and extension) Please share your product details Thank you</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2471,29 +2471,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Would Like To Buy Makeup Accessories</t>
+          <t>Looking for a Supplier of Acrylic Sheets</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-makeup-accessories/862221/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-a-supplier-of-acrylic-sheets/862246/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to source a variety of makeup accessories. Kindly share your products list, lead times and customization options.</t>
+          <t>We are looking for 8mm clear acrylic sheet custom cutting about 2000 units. Can you quote me?</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2503,29 +2503,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Looking For Graphite Products</t>
+          <t>Searching for Palm oil</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-graphite-products/862220/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-palm-oil/862236/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Good day, We are sourcing high-grade graphite products. The products should have high thermal conductivity and durability. Thank you.</t>
+          <t>Hello i am looking for Palm oil Monthly 10,000 MT. My delivery location is Malaysia. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2535,29 +2535,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Interested In Supermarket Shelves</t>
+          <t>Looking for Ginger</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-supermarket-shelves/862218/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-ginger/862224/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Greetings, We would like to purchase durable supermarket shelves. The shelves should be strong, adjustable and easy to assemble. Kind Regards.</t>
+          <t>Hello i am looking for Ginger 1 container 40RF size 100g. My delivery location is POD : Hai Phong Port. Kindly let me about the prices.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2567,29 +2567,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Looking For Deodorants</t>
+          <t>Would Like To Buy Makeup Accessories</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-deodorants/862217/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-makeup-accessories/862221/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase deodorants. Kindly provide us with your MOQ, product details and payment terms.</t>
+          <t>Hi there, We are looking to source a variety of makeup accessories. Kindly share your products list, lead times and customization options.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2599,29 +2599,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Interested In Electric Screwdrivers</t>
+          <t>Looking For Graphite Products</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-electric-screwdrivers/862215/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-graphite-products/862220/</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Good day, We are looking to procure electric screwdrivers. We are mainly looking for screwdrivers with multiple speed settings &amp; rechargeable batteries.</t>
+          <t>Good day, We are sourcing high-grade graphite products. The products should have high thermal conductivity and durability. Thank you.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2631,29 +2631,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Want To Source Face Masks</t>
+          <t>Interested In Supermarket Shelves</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-face-masks/862214/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-supermarket-shelves/862218/</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality face masks. Kindly send your product specifications, certifications, and lead times.</t>
+          <t>Greetings, We would like to purchase durable supermarket shelves. The shelves should be strong, adjustable and easy to assemble. Kind Regards.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2663,29 +2663,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Looking For Shoe Care Kit</t>
+          <t>Looking For Deodorants</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-shoe-care-kit/862212/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-deodorants/862217/</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase premium shoe care kits. The kits should include brushes, polish, cleaning cloths and protective sprays.</t>
+          <t>Hello, We are looking to purchase deodorants. Kindly provide us with your MOQ, product details and payment terms.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2695,29 +2695,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Looking For Animal Hides</t>
+          <t>Interested In Electric Screwdrivers</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-animal-hides/862209/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-electric-screwdrivers/862215/</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Greetings, We are currently sourcing raw animal hides. Please provide us with your pricing, available grades and lead times. Kind Regards.</t>
+          <t>Good day, We are looking to procure electric screwdrivers. We are mainly looking for screwdrivers with multiple speed settings &amp; rechargeable batteries.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2727,29 +2727,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Interested In Facial Steamers</t>
+          <t>Want To Source Face Masks</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-facial-steamers/862208/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-face-masks/862214/</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Greetings, We are looking to purchase facial steamers for salon use. The steamers should be energy-efficient and deliver consistent steam output.</t>
+          <t>Hello, We are sourcing high-quality face masks. Kindly send your product specifications, certifications, and lead times.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2759,29 +2759,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Interested In Tool Sets</t>
+          <t>Looking For Shoe Care Kit</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-tool-sets/862204/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-shoe-care-kit/862212/</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality tool sets. The sets should include tools such as wrenches, screwdrivers, plier &amp; sockets.</t>
+          <t>Hello, We are looking to purchase premium shoe care kits. The kits should include brushes, polish, cleaning cloths and protective sprays.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2791,29 +2791,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Looking For Polyester Yarn</t>
+          <t>Looking For Animal Hides</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-polyester-yarn/862203/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-animal-hides/862209/</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hi there, We are looking to purchase high-quality polyester yarn. Please send us your product details, pricing and shipping options.</t>
+          <t>Greetings, We are currently sourcing raw animal hides. Please provide us with your pricing, available grades and lead times. Kind Regards.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2823,29 +2823,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Want To Source Sunflower Oil</t>
+          <t>Interested In Facial Steamers</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/862202/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-facial-steamers/862208/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Good day, We are interested in sourcing refined sunflower oil. The oil must be 100% pure, fresh, and meet international food standards.</t>
+          <t>Greetings, We are looking to purchase facial steamers for salon use. The steamers should be energy-efficient and deliver consistent steam output.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2855,29 +2855,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Looking For Peanut Butter</t>
+          <t>Interested In Tool Sets</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-peanut-butter/862201/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-tool-sets/862204/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality peanut butter. The products must be made from premium roasted peanuts without harmful additives.</t>
+          <t>Hello, We are sourcing high-quality tool sets. The sets should include tools such as wrenches, screwdrivers, plier &amp; sockets.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2887,29 +2887,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Looking For Chainlink Fence</t>
+          <t>Looking For Polyester Yarn</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-chainlink-fence/862200/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-polyester-yarn/862203/</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hello, We are currently seeking chainlink fencing. The material must meet high strength and corrosion resistance standards. Thank you.</t>
+          <t>Hi there, We are looking to purchase high-quality polyester yarn. Please send us your product details, pricing and shipping options.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2919,29 +2919,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Interested In Facial Cleansers</t>
+          <t>Want To Source Sunflower Oil</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-facial-cleansers/862199/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-sunflower-oil/862202/</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase premium-quality facial cleansers. The products must be dermatologically tested and suitable for all skin types.</t>
+          <t>Good day, We are interested in sourcing refined sunflower oil. The oil must be 100% pure, fresh, and meet international food standards.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Looking For Camera Accessories</t>
+          <t>Looking For Peanut Butter</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-camera-accessories/862198/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-peanut-butter/862201/</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing high-quality camera accessories. The range should include tripods, lens filters and cleaning kits. Kind Regards.</t>
+          <t>Hello, We are sourcing high-quality peanut butter. The products must be made from premium roasted peanuts without harmful additives.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2983,29 +2983,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Interested In Copper</t>
+          <t>Looking For Chainlink Fence</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper/862197/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-chainlink-fence/862200/</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hi we are looking for Copper in Canada we would like to know the prices of 1 container full of 40ft Please share your good company profile Thank you</t>
+          <t>Hello, We are currently seeking chainlink fencing. The material must meet high strength and corrosion resistance standards. Thank you.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3015,29 +3015,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Interested In Vapes</t>
+          <t>Interested In Facial Cleansers</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-vapes/862194/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-facial-cleansers/862199/</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Good day, We are currently looking to purchase vapes. Please provide us with competitive pricing and flexible order quantities.</t>
+          <t>Good day, We are looking to purchase premium-quality facial cleansers. The products must be dermatologically tested and suitable for all skin types.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3047,29 +3047,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Interested In A4 Copy Paper</t>
+          <t>Looking For Camera Accessories</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-a4-copy-paper/862192/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-camera-accessories/862198/</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase premium A4 copy paper. The paper must have a smooth finish, bright whiteness and a standard GSM of 70-80.</t>
+          <t>Hello, We are sourcing high-quality camera accessories. The range should include tripods, lens filters and cleaning kits. Kind Regards.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3079,29 +3079,29 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Looking For Energy Drinks</t>
+          <t>Interested In Copper</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-energy-drinks/862188/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper/862197/</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase energy drinks. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hi we are looking for Copper in Canada we would like to know the prices of 1 container full of 40ft Please share your good company profile Thank you</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3111,29 +3111,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Looking for e bike</t>
+          <t>Interested In Vapes</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-e-bike/862153/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-vapes/862194/</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>My name is Cynthia Okoro, I live in Switzerland but I have e bike shop in Nigeria. Please do you ship to Nigeria</t>
+          <t>Good day, We are currently looking to purchase vapes. Please provide us with competitive pricing and flexible order quantities.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3143,29 +3143,29 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Need Cocoa Bean urgently</t>
+          <t>Interested In A4 Copy Paper</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-cocoa-bean-urgently/862124/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-a4-copy-paper/862192/</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Need premium quality cocoa beans urgently. Looking for dependable suppliers with ready stock.</t>
+          <t>Good day, We are looking to purchase premium A4 copy paper. The paper must have a smooth finish, bright whiteness and a standard GSM of 70-80.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3175,29 +3175,29 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Would like to import Ride On Car</t>
+          <t>Looking For Energy Drinks</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-import-ride-on-car/862125/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-energy-drinks/862188/</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>We would like to import children’s ride-on cars. Seeking trusted exporters with competitive offers.</t>
+          <t>Hello, We would like to purchase energy drinks. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3207,29 +3207,29 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Would like to buy Wood Working Machine Spares and Tools</t>
+          <t>Looking for e bike</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-wood-working-machine-spares/862127/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-e-bike/862153/</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Would like to buy woodworking machine spares and tools in bulk. Reliable quality and timely delivery needed.</t>
+          <t>My name is Cynthia Okoro, I live in Switzerland but I have e bike shop in Nigeria. Please do you ship to Nigeria</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3239,29 +3239,29 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Interested in Copper Scrap</t>
+          <t>Need Cocoa Bean urgently</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-copper-scrap/862128/</t>
+          <t>https://www.tradewheel.com/buyers/need-cocoa-bean-urgently/862124/</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>We are interested in buying copper scrap for immediate shipment. Only verified suppliers are welcome.</t>
+          <t>Need premium quality cocoa beans urgently. Looking for dependable suppliers with ready stock.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3271,29 +3271,29 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Looking for Vape</t>
+          <t>Would like to import Ride On Car</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-vape/862129/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-import-ride-on-car/862125/</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Currently sourcing branded vape products. Interested suppliers are requested to provide quotations.</t>
+          <t>We would like to import children’s ride-on cars. Seeking trusted exporters with competitive offers.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3303,29 +3303,29 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Rush order for Essential Oil – Contact ASAP</t>
+          <t>Would like to buy Wood Working Machine Spares and Tools</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rush-order-for-essential-oil-contact-asap/862131/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-wood-working-machine-spares/862127/</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Rush order required for natural essential oils. Genuine suppliers contact us immediately.</t>
+          <t>Would like to buy woodworking machine spares and tools in bulk. Reliable quality and timely delivery needed.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3335,29 +3335,29 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ready to place order for Red Lentils</t>
+          <t>Interested in Copper Scrap</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-red-lentils/862134/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-copper-scrap/862128/</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>We are ready to place an order for premium red lentils. Suppliers with stock on hand please connect.</t>
+          <t>We are interested in buying copper scrap for immediate shipment. Only verified suppliers are welcome.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3367,29 +3367,29 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Immediate purchase – A4 Paper</t>
+          <t>Looking for Vape</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/immediate-purchase-a4-paper/862135/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-vape/862129/</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Immediate purchase required for A4 paper in bulk. Looking for competitive rates and fast delivery.</t>
+          <t>Currently sourcing branded vape products. Interested suppliers are requested to provide quotations.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3399,29 +3399,29 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Urgent requirement of Sugar</t>
+          <t>Rush order for Essential Oil – Contact ASAP</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-sugar/862136/</t>
+          <t>https://www.tradewheel.com/buyers/rush-order-for-essential-oil-contact-asap/862131/</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>We have an urgent requirement for high-quality sugar. Reliable suppliers kindly share offers at the earliest.</t>
+          <t>Rush order required for natural essential oils. Genuine suppliers contact us immediately.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3431,29 +3431,29 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Details For  Antimony Ore</t>
+          <t>Ready to place order for Red Lentils</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/details-for-antimony-ore/862138/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-place-order-for-red-lentils/862134/</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>We are looking for suppliers for Antimony Ore</t>
+          <t>We are ready to place an order for premium red lentils. Suppliers with stock on hand please connect.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3463,29 +3463,29 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Need Bulk suppliers for copper</t>
+          <t>Immediate purchase – A4 Paper</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-bulk-suppliers-for-copper/862139/</t>
+          <t>https://www.tradewheel.com/buyers/immediate-purchase-a4-paper/862135/</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>We are here looking to make an order for copper.</t>
+          <t>Immediate purchase required for A4 paper in bulk. Looking for competitive rates and fast delivery.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Intending To Make an order For Sunflower Oil</t>
+          <t>Urgent requirement of Sugar</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/intending-to-make-an-order-for-sunflower-oil/862141/</t>
+          <t>https://www.tradewheel.com/buyers/urgent-requirement-of-sugar/862136/</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>We are looking to make an order for Sunflower Oil</t>
+          <t>We have an urgent requirement for high-quality sugar. Reliable suppliers kindly share offers at the earliest.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3527,29 +3527,29 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Quotation For Used Cloths</t>
+          <t>Details For  Antimony Ore</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/quotation-for-used-cloths/862143/</t>
+          <t>https://www.tradewheel.com/buyers/details-for-antimony-ore/862138/</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>We need suppliers for Used Cloths Need verified suppliers only</t>
+          <t>We are looking for suppliers for Antimony Ore</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3559,29 +3559,29 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Procuring Crude Oil with private labelling</t>
+          <t>Need Bulk suppliers for copper</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/procuring-crude-oil-with-private-labelling/862146/</t>
+          <t>https://www.tradewheel.com/buyers/need-bulk-suppliers-for-copper/862139/</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Hi there, I am seeking to buy Crude Oil. Let me know the prices and details.</t>
+          <t>We are here looking to make an order for copper.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3591,29 +3591,29 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Eager to buy Toothpaste</t>
+          <t>Intending To Make an order For Sunflower Oil</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/eager-to-buy-toothpaste/862148/</t>
+          <t>https://www.tradewheel.com/buyers/intending-to-make-an-order-for-sunflower-oil/862141/</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hey friend, I have requirement for buying Toothpaste. Send the catalogue and price list.</t>
+          <t>We are looking to make an order for Sunflower Oil</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Honing machines needed for industrial use</t>
+          <t>Quotation For Used Cloths</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/honing-machines-needed-for-industrial-use/862150/</t>
+          <t>https://www.tradewheel.com/buyers/quotation-for-used-cloths/862143/</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hello, I am importing Honing machines. Need quotes and details.</t>
+          <t>We need suppliers for Used Cloths Need verified suppliers only</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3655,29 +3655,29 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Would like to buy Sanitary Napkins</t>
+          <t>Procuring Crude Oil with private labelling</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-sanitary-napkins/862151/</t>
+          <t>https://www.tradewheel.com/buyers/procuring-crude-oil-with-private-labelling/862146/</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Hey friend, I am intending to purchase Sanitary Napkins. Share the prices and other details.</t>
+          <t>Hi there, I am seeking to buy Crude Oil. Let me know the prices and details.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3687,29 +3687,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Require coffee for OEM</t>
+          <t>Eager to buy Toothpaste</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-coffee-for-oem/862152/</t>
+          <t>https://www.tradewheel.com/buyers/eager-to-buy-toothpaste/862148/</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Hello, We are very interested in sourcing high-quality Thai coffee for private label or wholesale supply, and we’re currently exploring potential supplier partnerships. Ideally, we are looking for: Roasted or green beans suitable for retail ...</t>
+          <t>Hey friend, I have requirement for buying Toothpaste. Send the catalogue and price list.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3719,22 +3719,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Planning to Buy Disposable Vapes</t>
+          <t>Honing machines needed for industrial use</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/planning-to-buy-disposable-vapes/862154/</t>
+          <t>https://www.tradewheel.com/buyers/honing-machines-needed-for-industrial-use/862150/</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>keen to purchase Vozol China Wholesale Factory Vape we need price and details Thank you!</t>
+          <t>Hello, I am importing Honing machines. Need quotes and details.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -3751,29 +3751,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Urgently Need Horse meat</t>
+          <t>Would like to buy Sanitary Napkins</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/urgently-need-horse-meat/862155/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-sanitary-napkins/862151/</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>I am Cody. I want to purchase some horsemeat for my family! if you have kindly share price and details Thank you!</t>
+          <t>Hey friend, I am intending to purchase Sanitary Napkins. Share the prices and other details.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3783,29 +3783,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Want to Procuring mung bean &amp; red bean</t>
+          <t>Require coffee for OEM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-procuring-mung-bean-red-bean/862156/</t>
+          <t>https://www.tradewheel.com/buyers/require-coffee-for-oem/862152/</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Willing to procure mung bean &amp; red bean from U.S. origin. The minimum volume will be at least a container load, equivalent to 25 metric tons. Looking for quality and a competitive price, if possible.</t>
+          <t>Hello, We are very interested in sourcing high-quality Thai coffee for private label or wholesale supply, and we’re currently exploring potential supplier partnerships. Ideally, we are looking for: Roasted or green beans suitable for retail ...</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3815,29 +3815,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Looking for Importing Aluminum alloys</t>
+          <t>Planning to Buy Disposable Vapes</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-importing-aluminum-alloys/862157/</t>
+          <t>https://www.tradewheel.com/buyers/planning-to-buy-disposable-vapes/862154/</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>in your quotation: 1. Types of Aluminum Alloys (including Pure Aluminum): A list of all available aluminum alloy types, in addition to pure aluminum, specifying the technical characteristics of each type (e.g., chemical composition, mechanical pr...</t>
+          <t>keen to purchase Vozol China Wholesale Factory Vape we need price and details Thank you!</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3847,29 +3847,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Require High Quality Canned Pineapples</t>
+          <t>Urgently Need Horse meat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/require-high-quality-canned-pineapples/862163/</t>
+          <t>https://www.tradewheel.com/buyers/urgently-need-horse-meat/862155/</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Hi!!, I’m Daniel and I’m interested in buying pineapples from you and would like to ask you some questions, hope we’ll contact us soon please share your price and details Thank you!</t>
+          <t>I am Cody. I want to purchase some horsemeat for my family! if you have kindly share price and details Thank you!</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3879,29 +3879,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Need to purchase Vape and electronics cigarettes</t>
+          <t>Want to Procuring mung bean &amp; red bean</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/need-to-purchase-vape-and-electronics-cigarettes/862164/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-procuring-mung-bean-red-bean/862156/</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Hello Need to purchase JNR Wolf Niplo 10000 Puffs Wholesale Vape 0% 2% 5% Levels For Puffs JNR Enthusiasts In The JNR Vape Pakistan Market kindly let me know the price and details Thank you!</t>
+          <t>Willing to procure mung bean &amp; red bean from U.S. origin. The minimum volume will be at least a container load, equivalent to 25 metric tons. Looking for quality and a competitive price, if possible.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3911,29 +3911,29 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>RFQ for  Korean fillers</t>
+          <t>Looking for Importing Aluminum alloys</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-korean-fillers/862106/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-importing-aluminum-alloys/862157/</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>i am from a distribution company of Viva pharmaceutical, we are just finishing relationships with our partners and looking for new ones. We are located in Georgia Tbilisi and right now we are interested in Korean fillers. I am interested in low price...</t>
+          <t>in your quotation: 1. Types of Aluminum Alloys (including Pure Aluminum): A list of all available aluminum alloy types, in addition to pure aluminum, specifying the technical characteristics of each type (e.g., chemical composition, mechanical pr...</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3943,29 +3943,29 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Looking for Moringa Powder</t>
+          <t>Require High Quality Canned Pineapples</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-moringa-powder/862088/</t>
+          <t>https://www.tradewheel.com/buyers/require-high-quality-canned-pineapples/862163/</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hello, I need MORINGA POWDER, MOQ is 50kg</t>
+          <t>Hi!!, I’m Daniel and I’m interested in buying pineapples from you and would like to ask you some questions, hope we’ll contact us soon please share your price and details Thank you!</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3975,29 +3975,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>RFQ for magnesium oxide light,pharma grade,99%</t>
+          <t>Need to purchase Vape and electronics cigarettes</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-magnesium-oxide-lightpharma-grade99/862081/</t>
+          <t>https://www.tradewheel.com/buyers/need-to-purchase-vape-and-electronics-cigarettes/862164/</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Dear sir,, Kindly send your best quote for : Magnesium Oxide Light (ip)" Quantity : 500 Kg Purity : 99% Packing : 25 Kg / bag CIF Alexandria port , Egypt Also can you send the COA .</t>
+          <t>Hello Need to purchase JNR Wolf Niplo 10000 Puffs Wholesale Vape 0% 2% 5% Levels For Puffs JNR Enthusiasts In The JNR Vape Pakistan Market kindly let me know the price and details Thank you!</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4007,22 +4007,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Looking for Peanuts</t>
+          <t>RFQ for  Korean fillers</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-peanuts/862076/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-korean-fillers/862106/</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Hello, I need Peanut, MOQ is 10ton</t>
+          <t>i am from a distribution company of Viva pharmaceutical, we are just finishing relationships with our partners and looking for new ones. We are located in Georgia Tbilisi and right now we are interested in Korean fillers. I am interested in low price...</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -4039,29 +4039,29 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Looking for Vape</t>
+          <t>Looking for Moringa Powder</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-vape/862074/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-moringa-powder/862088/</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hello, I need Vape, Send Samples</t>
+          <t>Hello, I need MORINGA POWDER, MOQ is 50kg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4071,29 +4071,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RFQ for corrugated catalyst</t>
+          <t>RFQ for magnesium oxide light,pharma grade,99%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-corrugated-catalyst/862073/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-magnesium-oxide-lightpharma-grade99/862081/</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CATALYST FROM PRODUCERS ONLY Supply in Casablanca of vanadium catalyst type XLP220 or 04-110 or standard catalyst SHAPE AND DIMENSIONS 1) Type: 04-110 or equivalent Installation: 1st, 2ND, 3rd, and 4th beds Inner diameter: 3.8 mm Outer diameter...</t>
+          <t>Dear sir,, Kindly send your best quote for : Magnesium Oxide Light (ip)" Quantity : 500 Kg Purity : 99% Packing : 25 Kg / bag CIF Alexandria port , Egypt Also can you send the COA .</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4103,29 +4103,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>RFQ for Designer Fashion Gold Plated Jewelry</t>
+          <t>Looking for Peanuts</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-designer-fashion-gold-plated-jewelry/862071/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-peanuts/862076/</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Hello, I am interested in your hypoallergenic stainless steel jewelry (necklaces, bracelets, rings, earrings). Before any order, I must make sure that your products comply with European regulations. Please send me the following documents for the p...</t>
+          <t>Hello, I need Peanut, MOQ is 10ton</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4135,29 +4135,29 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Interested In Water Bottles</t>
+          <t>Looking for Vape</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-water-bottles/862051/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-vape/862074/</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Hi there, I would like to purchase water bottles. The bottles should be leak-proof, durable and available in various sizes.</t>
+          <t>Hello, I need Vape, Send Samples</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4167,29 +4167,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Interested In Milk Powder</t>
+          <t>RFQ for corrugated catalyst</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-milk-powder/862049/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-corrugated-catalyst/862073/</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase milk powder. Please provide us with product details, shelf life, and minimum order quantities.</t>
+          <t>CATALYST FROM PRODUCERS ONLY Supply in Casablanca of vanadium catalyst type XLP220 or 04-110 or standard catalyst SHAPE AND DIMENSIONS 1) Type: 04-110 or equivalent Installation: 1st, 2ND, 3rd, and 4th beds Inner diameter: 3.8 mm Outer diameter...</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4199,29 +4199,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Requirement For Used Drained Battery Scrap</t>
+          <t>RFQ for Designer Fashion Gold Plated Jewelry</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/requirement-for-used-drained-battery-scrap/862046/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-designer-fashion-gold-plated-jewelry/862071/</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Hi we are looking for Battery Scrap in India Our requirement is 1000MT please share your good prices with us Thank you</t>
+          <t>Hello, I am interested in your hypoallergenic stainless steel jewelry (necklaces, bracelets, rings, earrings). Before any order, I must make sure that your products comply with European regulations. Please send me the following documents for the p...</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4231,29 +4231,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Searching For Vanilla Beans</t>
+          <t>Interested In Water Bottles</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-vanilla-beans/862045/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-water-bottles/862051/</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Greetings, We would like to purchase vanilla beans. Could you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Hi there, I would like to purchase water bottles. The bottles should be leak-proof, durable and available in various sizes.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4263,29 +4263,29 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Interested in Winter Strollers</t>
+          <t>Interested In Milk Powder</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-winter-strollers/862044/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-milk-powder/862049/</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I need winter shawls in stroller style, preferably in soft wool or blended fabric for bulk purchase. Please share available colors and designs suitable for winter wear. What is your usual delivery time for large orders?</t>
+          <t>Good day, We are looking to purchase milk powder. Please provide us with product details, shelf life, and minimum order quantities.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4295,29 +4295,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Looking For Sour Mustard Greens</t>
+          <t>Requirement For Used Drained Battery Scrap</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-sour-mustard-greens/862043/</t>
+          <t>https://www.tradewheel.com/buyers/requirement-for-used-drained-battery-scrap/862046/</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Good day, We are looking to buy sour mustard greens. Please provide us with your product details along with pricing. Thank you.</t>
+          <t>Hi we are looking for Battery Scrap in India Our requirement is 1000MT please share your good prices with us Thank you</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4327,29 +4327,29 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Want To Source Agricultural Products</t>
+          <t>Searching For Vanilla Beans</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-agricultural-products/862040/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-vanilla-beans/862045/</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing a wide range of agricultural products. The products must meet international food quality standards &amp; be free from chemical contamination.</t>
+          <t>Greetings, We would like to purchase vanilla beans. Could you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4359,29 +4359,29 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Looking For Biomass Briquette Machines</t>
+          <t>Interested in Winter Strollers</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-biomass-briquette-machines/862038/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-winter-strollers/862044/</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hello, We are in need of biomass briquette machines. The machines should have a high output capacity and low power consumption.</t>
+          <t>I need winter shawls in stroller style, preferably in soft wool or blended fabric for bulk purchase. Please share available colors and designs suitable for winter wear. What is your usual delivery time for large orders?</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4391,29 +4391,29 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Interested In Sunflower Seeds</t>
+          <t>Looking For Sour Mustard Greens</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-sunflower-seeds/862036/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-sour-mustard-greens/862043/</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Hello, We are in need of raw sunflower seeds. Interested suppliers should provide quality certifications and competitive pricing.</t>
+          <t>Good day, We are looking to buy sour mustard greens. Please provide us with your product details along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4423,29 +4423,29 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Looking for Cocopeat</t>
+          <t>Want To Source Agricultural Products</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-cocopeat/862035/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-agricultural-products/862040/</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hello, I am looking for Cocopeat around 2 Containers of 40ft first. Kindly let me know the prices along with the details. Thank you.</t>
+          <t>Hello, We are sourcing a wide range of agricultural products. The products must meet international food quality standards &amp; be free from chemical contamination.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4455,29 +4455,29 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Looking For Instant Rice</t>
+          <t>Looking For Biomass Briquette Machines</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-instant-rice/862034/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-biomass-briquette-machines/862038/</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase instant rice. The rice should be quick-cooking and must retain its natural flavor and texture. Kind Regards.</t>
+          <t>Hello, We are in need of biomass briquette machines. The machines should have a high output capacity and low power consumption.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4487,29 +4487,29 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Searching For Solar Fruit Dehydrator</t>
+          <t>Interested In Sunflower Seeds</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-solar-fruit-dehydrator/862033/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-sunflower-seeds/862036/</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Hello We are looking for Solar Fruit Dehydrator We would like to know the details of your products we will buy 1 to check the quality of it Please share your good prices Thank you</t>
+          <t>Hello, We are in need of raw sunflower seeds. Interested suppliers should provide quality certifications and competitive pricing.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4519,29 +4519,29 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Want to source Industrial Refrigerators</t>
+          <t>Looking for Cocopeat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-industrial-refrigerators/862031/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-cocopeat/862035/</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I am looking for an industrial refrigerator with stainless steel body and large storage capacity. Can you share temperature range and cooling system details? How soon can you arrange delivery after order confirmation?</t>
+          <t>Hello, I am looking for Cocopeat around 2 Containers of 40ft first. Kindly let me know the prices along with the details. Thank you.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4551,29 +4551,29 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Interested in Household appliances</t>
+          <t>Looking For Instant Rice</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-household-appliances/862029/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-instant-rice/862034/</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I am sourcing household appliances for bulk purchase, preferably in energy-efficient models. Please confirm if you can offer warranty and spare parts availability. What is your standard lead time for shipment?</t>
+          <t>Good day, We are looking to purchase instant rice. The rice should be quick-cooking and must retain its natural flavor and texture. Kind Regards.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4583,29 +4583,29 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Interested in Aluminum</t>
+          <t>Searching For Solar Fruit Dehydrator</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-aluminum/862028/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-solar-fruit-dehydrator/862033/</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>I require aluminum and other metal materials in sheet form, preferably with corrosion-resistant finish. Could you provide details on thickness options and surface treatment? Also, what are your usual packing methods for export?</t>
+          <t>Hello We are looking for Solar Fruit Dehydrator We would like to know the details of your products we will buy 1 to check the quality of it Please share your good prices Thank you</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4615,29 +4615,29 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Interested in Solar inverter</t>
+          <t>Want to source Industrial Refrigerators</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-solar-inverter/862025/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-industrial-refrigerators/862031/</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Hi, are there producers of solar inverters with reliable performance for residential and commercial systems? I’d like to know about capacities, warranties, and bulk availability.</t>
+          <t>I am looking for an industrial refrigerator with stainless steel body and large storage capacity. Can you share temperature range and cooling system details? How soon can you arrange delivery after order confirmation?</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4647,29 +4647,29 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Interested In Epoxy Resin</t>
+          <t>Interested in Household appliances</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-epoxy-resin/862024/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-household-appliances/862029/</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Dear Sir, I am looking to purchase epoxy resin. The product should have strong bonding capabilities and excellent durability. Thank you.</t>
+          <t>I am sourcing household appliances for bulk purchase, preferably in energy-efficient models. Please confirm if you can offer warranty and spare parts availability. What is your standard lead time for shipment?</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4679,29 +4679,29 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>In need of Handbags from manufacturer</t>
+          <t>Interested in Aluminum</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/in-need-of-handbags-from-manufacturer/862023/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-aluminum/862028/</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hi, are there manufacturers offering handbags in various materials and designs for wholesale supply? Interested in stylish yet durable options for different market segments.</t>
+          <t>I require aluminum and other metal materials in sheet form, preferably with corrosion-resistant finish. Could you provide details on thickness options and surface treatment? Also, what are your usual packing methods for export?</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4711,29 +4711,29 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Interested In Black Tea</t>
+          <t>Interested in Solar inverter</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-black-tea/862022/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-solar-inverter/862025/</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Good day, We are seeking premium black tea. The tea must be fresh, aromatic and sourced from reputable plantations. Kind Regards.</t>
+          <t>Hi, are there producers of solar inverters with reliable performance for residential and commercial systems? I’d like to know about capacities, warranties, and bulk availability.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4743,29 +4743,29 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Buying LED Lights for resale</t>
+          <t>Interested In Epoxy Resin</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-led-lights-for-resale/862021/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-epoxy-resin/862024/</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>I’m collecting LED indoor lighting options for future installation projects, focusing on lumen output, style, and delivery time.</t>
+          <t>Dear Sir, I am looking to purchase epoxy resin. The product should have strong bonding capabilities and excellent durability. Thank you.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4775,29 +4775,29 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Interested in LED Mirror</t>
+          <t>In need of Handbags from manufacturer</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-led-mirror/862019/</t>
+          <t>https://www.tradewheel.com/buyers/in-need-of-handbags-from-manufacturer/862023/</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>I am looking for custom LED mirrors with adjustable light settings. Could you provide details on available shapes and delivery lead time?</t>
+          <t>Hi, are there manufacturers offering handbags in various materials and designs for wholesale supply? Interested in stylish yet durable options for different market segments.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4807,29 +4807,29 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Searching for suppliers of Marbles</t>
+          <t>Interested In Black Tea</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-marbles/862018/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-black-tea/862022/</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>I want to connect with suppliers offering marble in various finishes, from honed to glossy, with prompt delivery schedules.</t>
+          <t>Good day, We are seeking premium black tea. The tea must be fresh, aromatic and sourced from reputable plantations. Kind Regards.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4839,29 +4839,29 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Buying Cotton for resale</t>
+          <t>Buying LED Lights for resale</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/buying-cotton-for-resale/862016/</t>
+          <t>https://www.tradewheel.com/buyers/buying-led-lights-for-resale/862021/</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>I require dental cotton wool rolls in pure white, medical-grade quality. Can you confirm the available roll lengths and packaging options?</t>
+          <t>I’m collecting LED indoor lighting options for future installation projects, focusing on lumen output, style, and delivery time.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4871,29 +4871,29 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ready to buy Pet Products</t>
+          <t>Interested in LED Mirror</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/ready-to-buy-pet-products/862013/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-led-mirror/862019/</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>I need smart auto feeders and similar pet gadgets for cats and dogs. Please let me know your available capacities and power options.</t>
+          <t>I am looking for custom LED mirrors with adjustable light settings. Could you provide details on available shapes and delivery lead time?</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4903,29 +4903,29 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Want to source Solar Freezers</t>
+          <t>Searching for suppliers of Marbles</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-solar-freezers/862011/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-suppliers-of-marbles/862018/</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>I need solar-powered freezers suitable for outdoor or off-grid use. Please share available storage capacities and how long they can maintain cooling without sunlight.</t>
+          <t>I want to connect with suppliers offering marble in various finishes, from honed to glossy, with prompt delivery schedules.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4935,29 +4935,29 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Looking for cat toys</t>
+          <t>Buying Cotton for resale</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-cat-toys/862009/</t>
+          <t>https://www.tradewheel.com/buyers/buying-cotton-for-resale/862016/</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Hello, We are looking to purchase cat toys. The materials must be safe, non-toxic, and durable for extended use. Kind Regards.</t>
+          <t>I require dental cotton wool rolls in pure white, medical-grade quality. Can you confirm the available roll lengths and packaging options?</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4967,29 +4967,29 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RFQ for 2-start ball screw</t>
+          <t>Ready to buy Pet Products</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-2-start-ball-screw/862007/</t>
+          <t>https://www.tradewheel.com/buyers/ready-to-buy-pet-products/862013/</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>I hope this message finds you well. Attached, you'll find a PDF with the general dimensions we need for the screw and nut. We're considering a 2-start ball screw, 4.76mm in diameter with a 5 mm lead, along with the corresponding nut.</t>
+          <t>I need smart auto feeders and similar pet gadgets for cats and dogs. Please let me know your available capacities and power options.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4999,29 +4999,29 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RFQ for CRGO steel sheet</t>
+          <t>Want to source Solar Freezers</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-crgo-steel-sheet/862001/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-solar-freezers/862011/</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>We need CRGO steel sheet and coil roll for transformer. Attached the details Technology: Electroslag Shape: Roll Surface: POLISH Special Use: Wear Resistant Steel Surface treatment: Black Leather Delivery condition: Pre-harden (28-36HRC ) Tech...</t>
+          <t>I need solar-powered freezers suitable for outdoor or off-grid use. Please share available storage capacities and how long they can maintain cooling without sunlight.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5031,29 +5031,29 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RFQ for electric saws for woodworking</t>
+          <t>Looking for cat toys</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/rfq-for-electric-saws-for-woodworking/861996/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-cat-toys/862009/</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>We are looking to purchase electric saws for woodworking purposes. The saws must be in new condition and directly sourced from manufacturers. Product specifications: Application: Woodworking Condition: New Supplier type: Manufacturer Typ...</t>
+          <t>Hello, We are looking to purchase cat toys. The materials must be safe, non-toxic, and durable for extended use. Kind Regards.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5063,29 +5063,29 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Looking For Excavator Spare Parts</t>
+          <t>RFQ for 2-start ball screw</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-excavator-spare-parts/861994/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-2-start-ball-screw/862007/</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hello, We are looking to source genuine heavy duty hitachi excavator spare parts. Our needs include hydraulic pumps, undercarriage parts, engine components.</t>
+          <t>I hope this message finds you well. Attached, you'll find a PDF with the general dimensions we need for the screw and nut. We're considering a 2-start ball screw, 4.76mm in diameter with a 5 mm lead, along with the corresponding nut.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5095,29 +5095,29 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Looking For Selective Wave Soldering Machines</t>
+          <t>RFQ for CRGO steel sheet</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-selective-wave-soldering-machines/861993/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-crgo-steel-sheet/862001/</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase selective wave soldering machines. The machines should support high-precision soldering for complex boards with minimal thermal stress.</t>
+          <t>We need CRGO steel sheet and coil roll for transformer. Attached the details Technology: Electroslag Shape: Roll Surface: POLISH Special Use: Wear Resistant Steel Surface treatment: Black Leather Delivery condition: Pre-harden (28-36HRC ) Tech...</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5127,29 +5127,29 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Looking for hot melt glue machines</t>
+          <t>RFQ for electric saws for woodworking</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-hot-melt-glue-machines/861983/</t>
+          <t>https://www.tradewheel.com/buyers/rfq-for-electric-saws-for-woodworking/861996/</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Hello, We are sourcing hot melt glue machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>We are looking to purchase electric saws for woodworking purposes. The saws must be in new condition and directly sourced from manufacturers. Product specifications: Application: Woodworking Condition: New Supplier type: Manufacturer Typ...</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5159,29 +5159,29 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Searching For Sunscreen</t>
+          <t>Looking For Excavator Spare Parts</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-sunscreen/861982/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-excavator-spare-parts/861994/</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Hi we are looking for sunscreen in Malaysia our requirement is 500 to 1000 pcs at the moment we are also interested in make up items Thank you</t>
+          <t>Hello, We are looking to source genuine heavy duty hitachi excavator spare parts. Our needs include hydraulic pumps, undercarriage parts, engine components.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5191,29 +5191,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Interested in car cameras</t>
+          <t>Looking For Selective Wave Soldering Machines</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-car-cameras/861980/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-selective-wave-soldering-machines/861993/</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Good day, We are looking to purchase high-definition car cameras. Can you provide us with availability along with pricing? Kind Regards.</t>
+          <t>Good day, We are looking to purchase selective wave soldering machines. The machines should support high-precision soldering for complex boards with minimal thermal stress.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5223,29 +5223,29 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Looking for bathroom accessories</t>
+          <t>Looking for hot melt glue machines</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-bathroom-accessories/861976/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-hot-melt-glue-machines/861983/</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Good day, We are seeking bathroom accessory sets. The products must include towel bars, soap dishes and robe hooks. Kind Regards.</t>
+          <t>Hello, We are sourcing hot melt glue machines. Please provide us with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5255,29 +5255,29 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Looking For Silicone Infant Food Containers</t>
+          <t>Searching For Sunscreen</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/looking-for-silicone-infant-food-containers/861975/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-sunscreen/861982/</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Good day, We are looking for BPA-free silicone infant food containers. Please provide us with sample availability, certifications and prices.</t>
+          <t>Hi we are looking for sunscreen in Malaysia our requirement is 500 to 1000 pcs at the moment we are also interested in make up items Thank you</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5287,29 +5287,29 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Searching for ball screws</t>
+          <t>Interested in car cameras</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-ball-screws/861974/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-car-cameras/861980/</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Hi there, We are sourcing high-precision ball screws. Please provide us with product details along with pricing. Kind Regards.</t>
+          <t>Good day, We are looking to purchase high-definition car cameras. Can you provide us with availability along with pricing? Kind Regards.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Republic of Türkiye</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5319,29 +5319,29 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Interested in electric saws</t>
+          <t>Looking for bathroom accessories</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-electric-saws/861972/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-bathroom-accessories/861976/</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Hello, We are looking for high-performance electric saws. Interested suppliers should share product certifications and price lists.</t>
+          <t>Good day, We are seeking bathroom accessory sets. The products must include towel bars, soap dishes and robe hooks. Kind Regards.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -5351,29 +5351,29 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Would like to buy strapping machines</t>
+          <t>Looking For Silicone Infant Food Containers</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/would-like-to-buy-strapping-machines/861969/</t>
+          <t>https://www.tradewheel.com/buyers/looking-for-silicone-infant-food-containers/861975/</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Dear Sir, I would like to purchase strapping machines. Kindly provide me with detailed specifications along with pricing. Thank you.</t>
+          <t>Good day, We are looking for BPA-free silicone infant food containers. Please provide us with sample availability, certifications and prices.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5383,29 +5383,29 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Want To Source Steel Scrap</t>
+          <t>Searching for ball screws</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-steel-scrap/861968/</t>
+          <t>https://www.tradewheel.com/buyers/searching-for-ball-screws/861974/</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Good day, We are interested in purchasing large quantities of steel scrap. Interested sellers may send their best price offers and certifications.</t>
+          <t>Hi there, We are sourcing high-precision ball screws. Please provide us with product details along with pricing. Kind Regards.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Republic of Türkiye</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5415,29 +5415,29 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Interested In PCB Assembly SMT</t>
+          <t>Interested in electric saws</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/interested-in-pcb-assembly-smt/861966/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-electric-saws/861972/</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>We are seeking reliable suppliers for high-quality PCB Assembly SMT. Our requirements include precision surface mount technology with strict adherence to IPC standards.</t>
+          <t>Hello, We are looking for high-performance electric saws. Interested suppliers should share product certifications and price lists.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5447,29 +5447,29 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Want to source hydraulic breakers</t>
+          <t>Would like to buy strapping machines</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-hydraulic-breakers/861965/</t>
+          <t>https://www.tradewheel.com/buyers/would-like-to-buy-strapping-machines/861969/</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing heavy-duty hydraulic breakers. Please provide us with detailed specifications along with pricing. Thank you.</t>
+          <t>Dear Sir, I would like to purchase strapping machines. Kindly provide me with detailed specifications along with pricing. Thank you.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5479,29 +5479,29 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Searching for claw machines</t>
+          <t>Want To Source Steel Scrap</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/searching-for-claw-machines/861964/</t>
+          <t>https://www.tradewheel.com/buyers/want-to-source-steel-scrap/861968/</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Hello, We would like to purchase claw machines. The machines should have adjustable grip strength and coin acceptors.</t>
+          <t>Good day, We are interested in purchasing large quantities of steel scrap. Interested sellers may send their best price offers and certifications.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5511,22 +5511,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Want to source electric grills</t>
+          <t>Interested In PCB Assembly SMT</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.tradewheel.com/buyers/want-to-source-electric-grills/861963/</t>
+          <t>https://www.tradewheel.com/buyers/interested-in-pcb-assembly-smt/861966/</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hello, We are currently sourcing electric grills. The products should be energy-efficient, easy to clean and safe to use. Thank you.</t>
+          <t>We are seeking reliable suppliers for high-quality PCB Assembly SMT. Our requirements include precision surface mount technology with strict adherence to IPC standards.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -5974,7 +5974,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6262,7 +6262,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-08-15 12:25:01</t>
+          <t>2025-08-15 14:04:44</t>
         </is>
       </c>
     </row>
